--- a/clusters/cluster3.xlsx
+++ b/clusters/cluster3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J116"/>
+  <dimension ref="A1:K88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,35 +451,40 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>localizacao</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>pros</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>contras</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>embeddings</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>cluster</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>cluster_encoded</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>tsne_1</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>tsne_2</t>
         </is>
@@ -488,3500 +493,3907 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ANALISTA JUNIOR</t>
+          <t>CIENTISTA DE DADOS PLENO</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS DE UM BANCO SAO BONS | CONTRAS: GESTAO SEM PENSAMENTOS DE EQUIPE</t>
+          <t>PROS: BENEFICIOS, ESTRUTURA, GESTAO PREPARADA (DEPENDE DA AREA) | CONTRAS: OBRIGATORIEDADE DO PRESENCIAL EM AREAS TECNICAS SEM A MENOR NECESSIDADE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>25 de jun. de 2025</t>
+          <t>3 de jul. de 2025</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS DE UM BANCO SAO BONS</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>GESTAO SEM PENSAMENTOS DE EQUIPE</t>
+          <t>PROS: BENEFICIOS, ESTRUTURA, GESTAO PREPARADA (DEPENDE DA AREA)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[-0.03732896  0.00283279 -0.05513755 ... -0.01832285 -0.03125882
- -0.01146686]</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>3</v>
+          <t>OBRIGATORIEDADE DO PRESENCIAL EM AREAS TECNICAS SEM A MENOR NECESSIDADE</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[-0.0438258  -0.00311728 -0.00894987 ...  0.02227183 -0.03338858
+  0.00369538]</t>
+        </is>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>-10.1787805557251</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>-4.756625175476074</v>
+        <v>4.774121284484863</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-19.10828399658203</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ANALISTA DE CREDITO</t>
+          <t>HUMAN RESOURCES BUSINESS PARTNER</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PROS: ESTABILIDADE, SALARIO BOM, OTIMO VALE | CONTRAS: MUITO MACANTE, PRESSAO, COBRANCA, NAO RECONHECIMENTO</t>
+          <t>PROS: AS PESSOAS TENTAM SE AJUDAR FOCANDO NO OBJETIVO DA EMPRESA; BONS BENEFICIOS | CONTRAS: EMPRESA DIGITAL, MAS A FORMA DE TRABALHO E 100% PRESENCIAL.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16 de abr. de 2025</t>
+          <t>25 de jun. de 2025</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PROS: ESTABILIDADE, SALARIO BOM, OTIMO VALE</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MUITO MACANTE, PRESSAO, COBRANCA, NAO RECONHECIMENTO</t>
+          <t>PROS: AS PESSOAS TENTAM SE AJUDAR FOCANDO NO OBJETIVO DA EMPRESA; BONS BENEFICIOS</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[ 1.56668462e-02  1.02639315e-05 -3.82618643e-02 ...  1.99470595e-02
- -2.82310750e-02  3.22076343e-02]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>3</v>
+          <t>EMPRESA DIGITAL, MAS A FORMA DE TRABALHO E 100% PRESENCIAL.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[-0.03251415 -0.00936428 -0.04371278 ...  0.0382624  -0.07405568
+ -0.00853541]</t>
+        </is>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>45.52292251586914</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>-12.10511684417725</v>
+        <v>6.508693695068359</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-25.43903350830078</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR</t>
+          <t>FRONTEND DEVELOPER</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PROS: TEM BONS BENEFICIOS , A EMPRESA SEMPRE TEM ATUALIZACAO DO SALARIO | CONTRAS: VOLTOU AO PRESENCIAR SEM JUSTIFICATIVA</t>
+          <t>PROS: SALARIOS E BENEFICIOS CONDIZENTES COM O MERCADO | CONTRAS: PRESENCIAL 100%, NAO EXISTE NEM MESMO UM HIBRIDO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>7 de abr. de 2025</t>
+          <t>24 de jun. de 2025</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PROS: TEM BONS BENEFICIOS , A EMPRESA SEMPRE TEM ATUALIZACAO DO SALARIO</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>VOLTOU AO PRESENCIAR SEM JUSTIFICATIVA</t>
+          <t>PROS: SALARIOS E BENEFICIOS CONDIZENTES COM O MERCADO</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[-0.02892846 -0.0295235  -0.00996767 ... -0.01308686 -0.00893257
-  0.04064778]</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>3</v>
+          <t>PRESENCIAL 100%, NAO EXISTE NEM MESMO UM HIBRIDO</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[-0.00990793 -0.03213819 -0.0118666  ...  0.04356232 -0.02674963
+  0.05688834]</t>
+        </is>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>24.3841438293457</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3796846568584442</v>
+        <v>11.18319702148438</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-25.94588088989258</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GRAPHIC DESIGNER</t>
+          <t>SOFTWARE DEVELOPER II</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PROS: REMUNERACAO MUITO BOA, CO OTIMOS BENEFICIOS E OTIMO AMBIENTE DE TRABALHO | CONTRAS: NAO EXISTE PERPSECTIVA DE CRESCIMENTO DENTRO DA EMPRESA</t>
+          <t>PROS: SALARIO COMPETITIVO E BENEFICIOS MUITO BONS | CONTRAS: PRESENCIAL 5 DIAS NA SEMANA E DIRETORIA MUDANDO DECISOES A CADA ANO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18 de mar. de 2025</t>
+          <t>17 de jun. de 2025</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PROS: REMUNERACAO MUITO BOA, CO OTIMOS BENEFICIOS E OTIMO AMBIENTE DE TRABALHO</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NAO EXISTE PERPSECTIVA DE CRESCIMENTO DENTRO DA EMPRESA</t>
+          <t>PROS: SALARIO COMPETITIVO E BENEFICIOS MUITO BONS</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[-0.05541017  0.01987173 -0.03924716 ...  0.02756189 -0.02498525
-  0.03129793]</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>3</v>
+          <t>PRESENCIAL 5 DIAS NA SEMANA E DIRETORIA MUDANDO DECISOES A CADA ANO</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[-0.02789134 -0.05470479 -0.00926266 ...  0.04395519 -0.02808792
+  0.02634586]</t>
+        </is>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.192267656326294</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>5.221176624298096</v>
+        <v>1.177361249923706</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-21.77881813049316</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DEV II</t>
+          <t>TECH MANAGER</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS COMPATIVEIS COM O SETOR BANCARIO, AMBIENTE DE TRABALHO AGRADAVEL. | CONTRAS: NAO POSSUI MODELO DE TRABALHO REMOTO, POUCAS PROMOCOES</t>
+          <t>PROS: EMPRESA INOVADORA, COM MUITOS PROJETOS, EXCELENTE LUGAR PARA SE DESENVOLVER PROFISSIONALMENTE. PARA QUEM E DA AREA DE TECNOLOGIA E UM EXCELENTE PARA SE DESENVOLVER COMO PROFISSIONAL. | CONTRAS: MODELO DE TRABALHO 100 PRESENCIAL E UM DESAFIO PARA ALGUMAS PESSOAS.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14 de mar. de 2025</t>
+          <t>27 de mai. de 2025</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS COMPATIVEIS COM O SETOR BANCARIO, AMBIENTE DE TRABALHO AGRADAVEL.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NAO POSSUI MODELO DE TRABALHO REMOTO, POUCAS PROMOCOES</t>
+          <t>PROS: EMPRESA INOVADORA, COM MUITOS PROJETOS, EXCELENTE LUGAR PARA SE DESENVOLVER PROFISSIONALMENTE. PARA QUEM E DA AREA DE TECNOLOGIA E UM EXCELENTE PARA SE DESENVOLVER COMO PROFISSIONAL.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[-0.03029005 -0.0168133   0.00234458 ... -0.01563272 -0.03638225
- -0.04498674]</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>3</v>
+          <t>MODELO DE TRABALHO 100 PRESENCIAL E UM DESAFIO PARA ALGUMAS PESSOAS.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[-0.00688614  0.00202477 -0.05271452 ...  0.02446244 -0.04235929
+  0.02272051]</t>
+        </is>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>35.14794158935547</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.6709305047988892</v>
+        <v>8.430367469787598</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-22.52846908569336</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ASSISTENTE DE ATENDIMENTO</t>
+          <t>IOS DEVELOPER III</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PROS: O HORARIO DE TRABALHO E MUITO BOM. | CONTRAS: TIRARAM O HOME OFFICE E ISSO FOI DESNECESSARIO.</t>
+          <t>PROS: VALE ALIMENTACAO ALTO EMPRESA UTILIZA TECNOLOGIAS ATUALIZADAS | CONTRAS: PRESENCIAL DEMANDAS REPRIORIZADAS COM MUITA FREQUENCIA PROCESSOS BAGUNCADOS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6 de mar. de 2025</t>
+          <t>5 de jun. de 2025</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PROS: O HORARIO DE TRABALHO E MUITO BOM.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>TIRARAM O HOME OFFICE E ISSO FOI DESNECESSARIO.</t>
+          <t>PROS: VALE ALIMENTACAO ALTO EMPRESA UTILIZA TECNOLOGIAS ATUALIZADAS</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[ 0.01441871  0.00776831 -0.07184187 ... -0.00066556 -0.05942653
- -0.00812852]</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>3</v>
+          <t>PRESENCIAL DEMANDAS REPRIORIZADAS COM MUITA FREQUENCIA PROCESSOS BAGUNCADOS</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[-0.05429416 -0.00106906 -0.01625917 ... -0.00562867  0.02330608
+  0.02137006]</t>
+        </is>
       </c>
       <c r="H7" t="n">
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>38.66762924194336</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>-11.25294780731201</v>
+        <v>-0.0386744812130928</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-24.54980850219727</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR IOS SENIOR</t>
+          <t>UX DESIGNER</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE INOVADOR E DASAFIADOR. MUITOS PROJETOS COMPLEXOS E CHEIOS DE MARGEM PARA CRESCIMENTO. | CONTRAS: NENHUM PONTO A DECLARAR ALEM DO FIM DO HOME OFFICE.</t>
+          <t>PROS: BENEFICIOS MUITO BONS (ALIMENTACAO E REFEICAO). | CONTRAS: SEM HOME OFFICE, 100 PRESENCIAL.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11 de fev. de 2025</t>
+          <t>5 de jun. de 2025</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE INOVADOR E DASAFIADOR. MUITOS PROJETOS COMPLEXOS E CHEIOS DE MARGEM PARA CRESCIMENTO.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NENHUM PONTO A DECLARAR ALEM DO FIM DO HOME OFFICE.</t>
+          <t>PROS: BENEFICIOS MUITO BONS (ALIMENTACAO E REFEICAO).</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[-0.00161275 -0.01456848 -0.04017893 ... -0.02424894 -0.05427217
-  0.05709766]</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>3</v>
+          <t>SEM HOME OFFICE, 100 PRESENCIAL.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>[-0.02140414 -0.01167127 -0.02985343 ...  0.00217901 -0.03268855
+  0.04798231]</t>
+        </is>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>37.81028747558594</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>-11.08993148803711</v>
+        <v>4.554333209991455</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-26.9523811340332</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>VENDEDOR COMERCIAL</t>
+          <t>TECH ASSISTANT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PROS: EXCELENTE EMPRESA, APRENDI MUITO LA,TUDO QUE SEI HOJE PROFISSIONALMENTE DEVO A ELES, SO TENHO A AGRADECER MESMO | CONTRAS: NAO EXISTE, MESMO NAO FAZENDO PARTE DA EMPRESA, AINDA CONSIDERO UMA DAS MELHORES EMPRESAS PARA SE TRABALHAR.</t>
+          <t>PROS: - BONS BENEFICIOS - AMBIENTE OK | CONTRAS: - 100% PRESENCIAL - PROGRESSAO DE CARREIRA CONGELADO - CRIARAM SUBCARGOS COM O INTUITO DE ABAIXAR O SALARIO</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>26 de jan. de 2025</t>
+          <t>19 de mai. de 2025</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PROS: EXCELENTE EMPRESA, APRENDI MUITO LA,TUDO QUE SEI HOJE PROFISSIONALMENTE DEVO A ELES, SO TENHO A AGRADECER MESMO</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NAO EXISTE, MESMO NAO FAZENDO PARTE DA EMPRESA, AINDA CONSIDERO UMA DAS MELHORES EMPRESAS PARA SE TRABALHAR.</t>
+          <t>PROS: - BONS BENEFICIOS - AMBIENTE OK</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[-0.03907454  0.00354109 -0.05793295 ...  0.05106924 -0.05566303
- -0.0273178 ]</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>3</v>
+          <t>- 100% PRESENCIAL - PROGRESSAO DE CARREIRA CONGELADO - CRIARAM SUBCARGOS COM O INTUITO DE ABAIXAR O SALARIO</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>[-0.05445588  0.00044722 -0.02549184 ... -0.00351998  0.02360301
+ -0.01220965]</t>
+        </is>
       </c>
       <c r="H9" t="n">
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>61.71788787841797</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>4.325927734375</v>
+        <v>1.119289994239807</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-14.62405014038086</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ANALISTA DE SISTEMAS SENIOR</t>
+          <t>DATA SCIENTIST I</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA MUITO BOA, COM OTIMOS BENEFICIOS. TRABALHA COM BOAS TECNOLOGIAS. | CONTRAS: INDEFINICAO SOBRE ATUACAO DOS FUNCIONARIOS HOMEOFFICE</t>
+          <t>PROS: SALARIO BOM
+VA E VR
+PLR
+PLANO DE SAUDE | CONTRAS: PRESENCIAL 100%, RETIRANDO O 1 DIA DE REMOTO</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>8 de jan. de 2025</t>
+          <t>26 de abr. de 2025</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA MUITO BOA, COM OTIMOS BENEFICIOS. TRABALHA COM BOAS TECNOLOGIAS.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>INDEFINICAO SOBRE ATUACAO DOS FUNCIONARIOS HOMEOFFICE</t>
+          <t>PROS: SALARIO BOM
+VA E VR
+PLR
+PLANO DE SAUDE</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[-0.03905979 -0.01892735 -0.04387609 ... -0.02559904 -0.05607947
- -0.00620377]</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>3</v>
+          <t>PRESENCIAL 100%, RETIRANDO O 1 DIA DE REMOTO</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>[-0.00253259 -0.01500531 -0.02015976 ... -0.01365368 -0.05068402
+  0.02543421]</t>
+        </is>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>36.10519790649414</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>-10.65896129608154</v>
+        <v>5.599865913391113</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-23.66506767272949</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ANALISTA JUNIOR</t>
+          <t>SYSTEM ANALYST</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PROS: HORARIO AJUSTAVEL, BOA GESTAO DE PESSOAS E ATIVIDADES SETORIZADAS. | CONTRAS: SEM HOME OFFICE NA ESCALA.</t>
+          <t>PROS: BOM AMBIENTE, BONS LIDERES E COLEGAS DE EQUIPE | CONTRAS: VOLTA DO TRABALHO PRESENCIAL E PLR</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>9 de jan. de 2025</t>
+          <t>14 de abr. de 2025</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PROS: HORARIO AJUSTAVEL, BOA GESTAO DE PESSOAS E ATIVIDADES SETORIZADAS.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SEM HOME OFFICE NA ESCALA.</t>
+          <t>PROS: BOM AMBIENTE, BONS LIDERES E COLEGAS DE EQUIPE</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[-0.0144873  -0.00390625 -0.04008721 ... -0.00473012 -0.01181669
-  0.04208991]</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>3</v>
+          <t>VOLTA DO TRABALHO PRESENCIAL E PLR</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>[-0.0200634   0.02876732 -0.01769434 ... -0.00282977 -0.06236354
+  0.01729666]</t>
+        </is>
       </c>
       <c r="H11" t="n">
         <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>33.63909149169922</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>-12.0538911819458</v>
+        <v>9.799500465393066</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-18.28842353820801</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ESPECIALISTA PRODUTOS</t>
+          <t>ANALISTA DE PRODUTOS SENIOR</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA FAMILIAR, NORTEADORES CULTURAIS EM DESENVOLVIMENTO | CONTRAS: NAO POSSUI HOME OFFICE, NAO POSSUI VALE COMBUSTIVEL</t>
+          <t>PROS: BENEFICIOS EXCELENTES POREM O AMBIENTE E BEM TOXICO. DEMISSOES EM MASSA O TEMPO TODO. | CONTRAS: ATE AS PESSOAS QUE FORAM CONTRATADAS 100% REMOTO FORAM OBRIGADAS A TRABALHAR PRESENCIAL COM RISCO DE DEMISSAO.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11 de dez. de 2024</t>
+          <t>17 de mar. de 2025</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA FAMILIAR, NORTEADORES CULTURAIS EM DESENVOLVIMENTO</t>
+          <t>Recife, PE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NAO POSSUI HOME OFFICE, NAO POSSUI VALE COMBUSTIVEL</t>
+          <t>PROS: BENEFICIOS EXCELENTES POREM O AMBIENTE E BEM TOXICO. DEMISSOES EM MASSA O TEMPO TODO.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[ 0.00732761 -0.03277314 -0.01279992 ...  0.0139608  -0.06537861
- -0.03167481]</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>3</v>
+          <t>ATE AS PESSOAS QUE FORAM CONTRATADAS 100% REMOTO FORAM OBRIGADAS A TRABALHAR PRESENCIAL COM RISCO DE DEMISSAO.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>[-0.01172285  0.02411461 -0.01829123 ...  0.00542515 -0.04848177
+ -0.00593545]</t>
+        </is>
       </c>
       <c r="H12" t="n">
         <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>35.67877197265625</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>-5.674315929412842</v>
+        <v>7.786959648132324</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-24.02188873291016</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ANALISTA DE SISTEMAS</t>
+          <t>DESENVOLVEDOR JAVA PLENO</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PROS: OTIMO SALARIO. VALES DE ALIMENTACAO E REFEICAO SAO BONS. | CONTRAS: DEU FIM AO TRABALHO HOME OFFICE.</t>
+          <t>PROS: AMBIENTE, REMUNERACAO, BENEFICIOS, FLEXIBILIDADE E INOVACAO | CONTRAS: REGIME PRESENCIAL, FALTA DE ESTACIONAMENTO NAS REDONDEZAS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5 de dez. de 2024</t>
+          <t>15 de mar. de 2025</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PROS: OTIMO SALARIO. VALES DE ALIMENTACAO E REFEICAO SAO BONS.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>DEU FIM AO TRABALHO HOME OFFICE.</t>
+          <t>PROS: AMBIENTE, REMUNERACAO, BENEFICIOS, FLEXIBILIDADE E INOVACAO</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[-0.00751774 -0.0080816  -0.05902507 ... -0.00833176 -0.0856968
-  0.02625751]</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>3</v>
+          <t>REGIME PRESENCIAL, FALTA DE ESTACIONAMENTO NAS REDONDEZAS</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>[ 7.9652509e-03  3.1094398e-02 -1.3423052e-02 ...  1.8924277e-02
+ -5.1967811e-02 -5.6111367e-05]</t>
+        </is>
       </c>
       <c r="H13" t="n">
         <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>37.95919799804688</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>-11.67695617675781</v>
+        <v>-2.04144549369812</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-17.60734748840332</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ANALYST</t>
+          <t>SOFTWARE ENGINEER I</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PROS: OTIMO SALARIO E BENEFICIOS COMO PPR | CONTRAS: SEM HOME OFFICE NO MOMENTO</t>
+          <t>PROS: AMBIENTE ESTIMULANTE E PRODUTOS QUE FUNCIONAM. | CONTRAS: TRABALHO PRESENCIAL E O BANCO DE HORAS E COMPRADO AO FINAL DE TODO MES</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12 de dez. de 2024</t>
+          <t>24 de fev. de 2025</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PROS: OTIMO SALARIO E BENEFICIOS COMO PPR</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SEM HOME OFFICE NO MOMENTO</t>
+          <t>PROS: AMBIENTE ESTIMULANTE E PRODUTOS QUE FUNCIONAM.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[-0.02944578  0.0173924  -0.02663165 ... -0.0101181  -0.07891993
- -0.01868301]</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>3</v>
+          <t>TRABALHO PRESENCIAL E O BANCO DE HORAS E COMPRADO AO FINAL DE TODO MES</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>[ 0.03236371  0.01399432 -0.06004817 ...  0.00564406 -0.03995465
+ -0.0107003 ]</t>
+        </is>
       </c>
       <c r="H14" t="n">
         <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>34.26225662231445</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>-12.03541851043701</v>
+        <v>7.238291263580322</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-19.93027877807617</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ANALISTA CX</t>
+          <t>ANALISTA JUNIOR</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PROS: SALARIO, BENEFICIOS, ALGUMAS PESSOAS
-SINDICATO
-MUITAS COISAS BOAS | CONTRAS: AMBIENTE DAS PESSOAS
-SEM HOME OFFICE</t>
+          <t>PROS: AMBIENTE MUITO BOM E AGREGADOR. | CONTRAS: 100% PRESENCIAL, DIFERENTE DO QUE OUTRAS INSTITUICOES PROPORCIONAM.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>20 de nov. de 2024</t>
+          <t>9 de fev. de 2025</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PROS: SALARIO, BENEFICIOS, ALGUMAS PESSOAS
-SINDICATO
-MUITAS COISAS BOAS</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>AMBIENTE DAS PESSOAS
-SEM HOME OFFICE</t>
+          <t>PROS: AMBIENTE MUITO BOM E AGREGADOR.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[-0.01684366  0.00100497 -0.07823515 ... -0.00793744 -0.07085627
- -0.03130072]</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>3</v>
+          <t>100% PRESENCIAL, DIFERENTE DO QUE OUTRAS INSTITUICOES PROPORCIONAM.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>[-0.00708406 -0.01625802 -0.03750843 ...  0.01130126 -0.02051
+ -0.0089985 ]</t>
+        </is>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>34.39653778076172</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>-13.34983348846436</v>
+        <v>5.317540645599365</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-24.84622955322266</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ASSISTENTE</t>
+          <t>ANALISTA</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PROS: EXCELENTE AMBIENTE DE TRABALHO E EXCELENTE SALARIO | CONTRAS: NAO OLHAM PARA O LADO HUMANO</t>
+          <t>PROS: EMPRESA BOA . MUITA COISA AINDA PARA SER ESTRUTURADO | CONTRAS: CULTURA 100% PRESENCIAL E CULTURA DE BANCO , MASSANTE</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12 de nov. de 2024</t>
+          <t>11 de fev. de 2025</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PROS: EXCELENTE AMBIENTE DE TRABALHO E EXCELENTE SALARIO</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NAO OLHAM PARA O LADO HUMANO</t>
+          <t>PROS: EMPRESA BOA . MUITA COISA AINDA PARA SER ESTRUTURADO</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[-0.01846314 -0.02339725 -0.01662899 ...  0.0297101  -0.03641976
-  0.00302885]</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>3</v>
+          <t>CULTURA 100% PRESENCIAL E CULTURA DE BANCO , MASSANTE</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>[-0.00043166 -0.01386358 -0.03909747 ...  0.00539202 -0.03425965
+  0.0146108 ]</t>
+        </is>
       </c>
       <c r="H16" t="n">
         <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>41.19746780395508</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4893806576728821</v>
+        <v>6.311824321746826</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-26.81057167053223</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOFTWARE DEVELOPER</t>
+          <t>DESENVOLVEDOR SENIOR</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PROS: SALARIO, BENEFICIOS, CULTURA, TIME, STACKS | CONTRAS: RH NAO E MUITO PROXIMO, FOI UMAS DAS PRIMEIRAS EMPRESAS NO BRASIL A TENTAR VOLTAR PARA O ESCRITORIO.</t>
+          <t>PROS: EQUIPE BOA. VISTA BONITA. BONS BENEFICIOS. | CONTRAS: 100% PRESENCIAL. NECESSARIO IMPLORAR POR PROMOCOES.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>21 de out. de 2024</t>
+          <t>12 de fev. de 2025</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PROS: SALARIO, BENEFICIOS, CULTURA, TIME, STACKS</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>RH NAO E MUITO PROXIMO, FOI UMAS DAS PRIMEIRAS EMPRESAS NO BRASIL A TENTAR VOLTAR PARA O ESCRITORIO.</t>
+          <t>PROS: EQUIPE BOA. VISTA BONITA. BONS BENEFICIOS.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[-0.02452936  0.05529533  0.00593045 ...  0.01231852 -0.03857494
-  0.00633162]</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>3</v>
+          <t>100% PRESENCIAL. NECESSARIO IMPLORAR POR PROMOCOES.</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>[-0.02547093 -0.01929995 -0.0313032  ... -0.00465169 -0.02023621
+  0.02151981]</t>
+        </is>
       </c>
       <c r="H17" t="n">
         <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>29.30112838745117</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>-20.39168739318848</v>
+        <v>4.906682014465332</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-23.97609329223633</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>KEY ACCOUNT MANAGER</t>
+          <t>DESENVOLVEDOR SENIOR</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PROS: BOA REMUNERACAO 
-PESSOAS LEGAIS 
-DESENVOLVIMENTO DE CARREIRA | CONTRAS: NAO TEM HOME OFFICE 
-NAO TEM BONUS APENAS PARTICIPACAO NOS LUCROS, SE NAO HOUVER LUCRO NAO GANHA BONUS</t>
+          <t>PROS: JA TEVE MUITOS, JA FOI UM DOS MELHORES LUGARES DE BH PRA SE TRABALHAR | CONTRAS: 100% PRESENCIAL BATER PONTO VARIOS PROCESSOS QUE SO DIMINUEM PRODUTIVIDADE ENGESSADA CHEIO DE PANELAS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>20 de set. de 2024</t>
+          <t>8 de fev. de 2025</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PROS: BOA REMUNERACAO 
-PESSOAS LEGAIS 
-DESENVOLVIMENTO DE CARREIRA</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NAO TEM HOME OFFICE 
-NAO TEM BONUS APENAS PARTICIPACAO NOS LUCROS, SE NAO HOUVER LUCRO NAO GANHA BONUS</t>
+          <t>PROS: JA TEVE MUITOS, JA FOI UM DOS MELHORES LUGARES DE BH PRA SE TRABALHAR</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[-0.05139574  0.00082109 -0.03273606 ...  0.0127968  -0.0865793
- -0.01730501]</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>3</v>
+          <t>100% PRESENCIAL BATER PONTO VARIOS PROCESSOS QUE SO DIMINUEM PRODUTIVIDADE ENGESSADA CHEIO DE PANELAS</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>[ 0.00110986 -0.01979508 -0.0535312  ...  0.02560485 -0.00948574
+  0.0272726 ]</t>
+        </is>
       </c>
       <c r="H18" t="n">
         <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>30.30157661437988</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>5.013646602630615</v>
+        <v>2.736156940460205</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-25.89545249938965</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ENGENHEIRO DE SOFTWARE</t>
+          <t>ANALISTA SENIOR</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PROS: SALARIO BOM, VA E VR ALTOS E OTIMO AMBIENTE DE TRABALHO | CONTRAS: NAO ADERIR 100% HOME OFFICE PARA QUEM DESEJA</t>
+          <t>PROS: ESTRUTURA BOA, TEMAS BONS PARA SE DESENVOLVER, VISTO SER UMA EMPRESA EM CRESCIMENTO | CONTRAS: TRABALHO EXCESSIVO, TOTALMENTE PRESENCIAL E SEM FLEXIBILIDADE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14 de set. de 2024</t>
+          <t>24 de jan. de 2025</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PROS: SALARIO BOM, VA E VR ALTOS E OTIMO AMBIENTE DE TRABALHO</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>NAO ADERIR 100% HOME OFFICE PARA QUEM DESEJA</t>
+          <t>PROS: ESTRUTURA BOA, TEMAS BONS PARA SE DESENVOLVER, VISTO SER UMA EMPRESA EM CRESCIMENTO</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[-0.0176176   0.00220679 -0.04976745 ... -0.01403018 -0.08203598
-  0.00976108]</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>3</v>
+          <t>TRABALHO EXCESSIVO, TOTALMENTE PRESENCIAL E SEM FLEXIBILIDADE</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>[-0.01757893  0.01576287 -0.04012255 ...  0.02515227 -0.04236136
+  0.04911643]</t>
+        </is>
       </c>
       <c r="H19" t="n">
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>33.23575210571289</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>-7.646402835845947</v>
+        <v>5.150440216064453</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-20.59593772888184</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ANALISTA DE SUCESSO DO CLIENTE</t>
+          <t>ANALISTA SENIOR</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS, BOA GESTAO, OPORTUNIDADES | CONTRAS: AUSENCIA DE HOME OFFICE, METAS, PL BAIXA</t>
+          <t>PROS: BOM AMBIENTE DE TRABALHO (BONS COLEGAS) USO DE TECNOLOGIAS DE PONTA | CONTRAS: RETORNO A 100% PRESENCIAL (LAYOFF FORCADO) PLANO DE CARREIRA NEBULOSO POUCO RECONHECIMENTO</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>28 de set. de 2024</t>
+          <t>8 de jan. de 2025</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS, BOA GESTAO, OPORTUNIDADES</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>AUSENCIA DE HOME OFFICE, METAS, PL BAIXA</t>
+          <t>PROS: BOM AMBIENTE DE TRABALHO (BONS COLEGAS) USO DE TECNOLOGIAS DE PONTA</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[-0.02494424 -0.01219768 -0.07671119 ...  0.00949674 -0.04595485
- -0.0012539 ]</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>3</v>
+          <t>RETORNO A 100% PRESENCIAL (LAYOFF FORCADO) PLANO DE CARREIRA NEBULOSO POUCO RECONHECIMENTO</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>[ 0.01199566  0.01893803 -0.01301699 ...  0.00274754 -0.00437767
+  0.02387016]</t>
+        </is>
       </c>
       <c r="H20" t="n">
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>34.87433242797852</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>-14.00364780426025</v>
+        <v>0.3401909172534943</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-18.01005554199219</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ANALISTA DE BACKOFFICE JUNIOR</t>
+          <t>DESENVOLVEDOR PLENO</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PROS: NAO TEM NENHUMA, TALVEZ NOME NO MERCADO | CONTRAS: A EMPRESA NAO E TRANSPARENTE COM FUNCIONARIOS</t>
+          <t>PROS: TECNOLOGIAS ATUALIZADAS, TRABALHO COM MICRO SERVICOS E PESSOAS EXPERIENTES. | CONTRAS: TRABALHO PRESENCIAL E CARGA HORARIA ALTA.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>26 de out. de 2024</t>
+          <t>6 de jan. de 2025</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PROS: NAO TEM NENHUMA, TALVEZ NOME NO MERCADO</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A EMPRESA NAO E TRANSPARENTE COM FUNCIONARIOS</t>
+          <t>PROS: TECNOLOGIAS ATUALIZADAS, TRABALHO COM MICRO SERVICOS E PESSOAS EXPERIENTES.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[-0.04602437 -0.01303787 -0.05011032 ...  0.01533185 -0.0342926
- -0.01532526]</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>3</v>
+          <t>TRABALHO PRESENCIAL E CARGA HORARIA ALTA.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>[ 0.00363109  0.01176187 -0.05575768 ...  0.030246   -0.03092512
+  0.02623926]</t>
+        </is>
       </c>
       <c r="H21" t="n">
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>-6.048432350158691</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>1.163673162460327</v>
+        <v>6.955287456512451</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-19.11242485046387</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DATA ENGINEER</t>
+          <t>DEV JUNIOR</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PROS: BONS EQUIPAMENTOS, CULTURA INTERESSANTE E TECNICAMENTE EXCELENTE | CONTRAS: REMUNERACAO E PLRS NAO TAO AGRESSIVOS QUANTO OUTROS BANCOS.</t>
+          <t>PROS: BONS BENEFICIOS, SALARIO BOM, EQUIPE BOA | CONTRAS: PRESENCIAL TODOS OS DIAS, PARA TODOS.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>5 de set. de 2024</t>
+          <t>3 de jan. de 2025</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>PROS: BONS EQUIPAMENTOS, CULTURA INTERESSANTE E TECNICAMENTE EXCELENTE</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>REMUNERACAO E PLRS NAO TAO AGRESSIVOS QUANTO OUTROS BANCOS.</t>
+          <t>PROS: BONS BENEFICIOS, SALARIO BOM, EQUIPE BOA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[-0.027372    0.01112043 -0.01217709 ... -0.00582732 -0.01834827
- -0.05425972]</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>3</v>
+          <t>PRESENCIAL TODOS OS DIAS, PARA TODOS.</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>[-0.01787235  0.00643799 -0.01736414 ...  0.03730499 -0.04226557
+  0.02513584]</t>
+        </is>
       </c>
       <c r="H22" t="n">
         <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>17.73408317565918</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>9.550909996032715</v>
+        <v>6.036510467529297</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-22.54082679748535</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR SENIOR</t>
+          <t>SQUAD LEADER</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PROS: NAO EXISTE NENHUM PRO DE TRABALHAR PARA O BANCO INER | CONTRAS: PANELINHA
-HAMBIENTE TOXICO
-PESSOAL NAO TEM O MINIMO DE CARACTER</t>
+          <t>PROS: PLR BOA, TECNOLOGIA E APRENDIZADO | CONTRAS: 100% PRESENCIAL, METODO DE PAGAMENTO DE PLR AINDA UM POUCO OBSCURO</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5 de out. de 2024</t>
+          <t>11 de dez. de 2024</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PROS: NAO EXISTE NENHUM PRO DE TRABALHAR PARA O BANCO INER</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>PANELINHA
-HAMBIENTE TOXICO
-PESSOAL NAO TEM O MINIMO DE CARACTER</t>
+          <t>PROS: PLR BOA, TECNOLOGIA E APRENDIZADO</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[-0.043326    0.01430093 -0.04156658 ...  0.02600515 -0.06114271
- -0.02455817]</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>3</v>
+          <t>100% PRESENCIAL, METODO DE PAGAMENTO DE PLR AINDA UM POUCO OBSCURO</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>[-0.04350725 -0.00287309 -0.02427576 ... -0.01688447 -0.03493161
+  0.00302849]</t>
+        </is>
       </c>
       <c r="H23" t="n">
         <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>10.29529571533203</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>27.56708717346191</v>
+        <v>9.81654167175293</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-24.62498664855957</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GERENTE DE INVESTIMENTOS</t>
+          <t>DEV II</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PROS: TRABALHO ACELERADO, EM AMBIENTE DE CONTINUO APRENDIZADO, | CONTRAS: MUDANCAS DE FORMA CONTINUA, E SEM BONUS PELO RESULTADO.</t>
+          <t>PROS: - PROJETO DESAFIADOR - EQUIPE SENSACIONAL - OTIMOS BENEFICIOS | CONTRAS: - PRESSAO PELO PRESENCIAL - CRESCIMENTO DE CARREIRA LENTO</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>14 de ago. de 2024</t>
+          <t>27 de nov. de 2024</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PROS: TRABALHO ACELERADO, EM AMBIENTE DE CONTINUO APRENDIZADO,</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MUDANCAS DE FORMA CONTINUA, E SEM BONUS PELO RESULTADO.</t>
+          <t>PROS: - PROJETO DESAFIADOR - EQUIPE SENSACIONAL - OTIMOS BENEFICIOS</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[-0.06584024  0.00997782 -0.04727786 ... -0.01438609 -0.04452291
-  0.01409459]</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>3</v>
+          <t>- PRESSAO PELO PRESENCIAL - CRESCIMENTO DE CARREIRA LENTO</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>[-0.02541626  0.02196439 -0.04190537 ... -0.01536224 -0.0488499
+  0.00873388]</t>
+        </is>
       </c>
       <c r="H24" t="n">
         <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>-10.66864204406738</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>-21.04864692687988</v>
+        <v>-1.932979702949524</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-14.45584678649902</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>IT ANALYST</t>
+          <t>DEV III</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PROS: INCENTIVADORA, EVOLUCAO, EQUIDADE, FLEXIBILIDADE, APOIO | CONTRAS: DISTANTE, NAO OFERECE HOME OFFICE</t>
+          <t>PROS: APRENDIZADO CONTINUO
+VL E VR MUITO BONS | CONTRAS: FULL PRESENCIAL
+REFEITORIO NAO E O SUFICIENTE PARA TODOS OS FUNCIONARIOS</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>21 de ago. de 2024</t>
+          <t>11 de dez. de 2024</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PROS: INCENTIVADORA, EVOLUCAO, EQUIDADE, FLEXIBILIDADE, APOIO</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>DISTANTE, NAO OFERECE HOME OFFICE</t>
+          <t>PROS: APRENDIZADO CONTINUO
+VL E VR MUITO BONS</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[-0.00903472 -0.0430213  -0.03302381 ... -0.00499433 -0.04782555
- -0.06385677]</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>3</v>
+          <t>FULL PRESENCIAL
+REFEITORIO NAO E O SUFICIENTE PARA TODOS OS FUNCIONARIOS</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>[-0.010778   -0.03392081 -0.03182153 ...  0.02591266 -0.05815608
+  0.04350714]</t>
+        </is>
       </c>
       <c r="H25" t="n">
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>34.36310577392578</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>-6.500980377197266</v>
+        <v>11.18152141571045</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-23.41377258300781</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ASSISTENTE COMERCIAL</t>
+          <t>ASSISTENTE DE INVESTIMENTOS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PROS: LUGAR MARAVILHOSO DE TRABALHAR , MAS A DIRECAO DA EMPRESA E EXTREMISTA DESLIGAM FUNCIONARIOS SEM AO MENOS CONVERSAR , NAO ESCUTAM A VERSAO E NAO TENTAM REVERTER OS PROBLEMAS | CONTRAS: DIRETORIA EXTREMISTA, NAO PROCURAM SABER DO HISTORICO DO FUNCIONARIO E JA DESLIGAM.</t>
+          <t>PROS: VALE REFEICAO E ALIMENTACAO ALTO, AMBIENTE LEGAL, MUITO APRENDIZADO | CONTRAS: PRESENCIAL, MAS NO GERAL E BEM BOM</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>28 de mai. de 2024</t>
+          <t>11 de dez. de 2024</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>PROS: LUGAR MARAVILHOSO DE TRABALHAR , MAS A DIRECAO DA EMPRESA E EXTREMISTA DESLIGAM FUNCIONARIOS SEM AO MENOS CONVERSAR , NAO ESCUTAM A VERSAO E NAO TENTAM REVERTER OS PROBLEMAS</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>DIRETORIA EXTREMISTA, NAO PROCURAM SABER DO HISTORICO DO FUNCIONARIO E JA DESLIGAM.</t>
+          <t>PROS: VALE REFEICAO E ALIMENTACAO ALTO, AMBIENTE LEGAL, MUITO APRENDIZADO</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[-0.05641425 -0.03323075 -0.04171164 ...  0.03784882 -0.01386643
-  0.01506254]</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>3</v>
+          <t>PRESENCIAL, MAS NO GERAL E BEM BOM</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>[ 0.00030224 -0.01368882 -0.04453738 ...  0.02075723 -0.03951803
+ -0.03395725]</t>
+        </is>
       </c>
       <c r="H26" t="n">
         <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>-14.83673286437988</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>-3.014086961746216</v>
+        <v>6.481749057769775</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-21.54448318481445</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BUSINESS ANALYST</t>
+          <t>ESPECIALISTA ANDROID DEVELOPER</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PROS: TUDO, DESDE CRESCIMENTO ATE DESENVOLVIMENTO | CONTRAS: NADA, BEM TRANQUILO, DEPENDE MUITO DO PROFISSIONAL MESMO</t>
+          <t>PROS: SALARIO MUITO BOM
+EQUIPE AGRADAVEL DE TRABALHAR | CONTRAS: 100% PRESENCIAL
+DECISOES QUE NAO PENSAM NOS FUNCIONARIOS</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>19 de jul. de 2024</t>
+          <t>9 de dez. de 2024</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PROS: TUDO, DESDE CRESCIMENTO ATE DESENVOLVIMENTO</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NADA, BEM TRANQUILO, DEPENDE MUITO DO PROFISSIONAL MESMO</t>
+          <t>PROS: SALARIO MUITO BOM
+EQUIPE AGRADAVEL DE TRABALHAR</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[ 0.01258814  0.01170772 -0.05902034 ... -0.05238062 -0.01556423
-  0.03470588]</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>3</v>
+          <t>100% PRESENCIAL
+DECISOES QUE NAO PENSAM NOS FUNCIONARIOS</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>[-0.02801224 -0.00712489 -0.04093913 ...  0.01233824 -0.01299394
+ -0.01588033]</t>
+        </is>
       </c>
       <c r="H27" t="n">
         <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>57.31144332885742</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>-4.695977687835693</v>
+        <v>4.000224113464355</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-16.20100021362305</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SENIOR MACHINE LEARNING ENGINEER</t>
+          <t>ANALISTA JUNIOR</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS BASEADOS NO SINDICATO DOS BANCARIOS | CONTRAS: OS BENEFICIOS SAO OS MINIMOS ESTIPULADOS PELO SINDICATO E PELAS LEIS.
-SEM HOME OFFICE, GYMPASS, ETC</t>
+          <t>PROS: EMPRESA ATUALIZADA, SEMPRE MEXENDO COM TECNOLOGIAS NOVAS. | CONTRAS: DIFICIL PROMOCAO, MUITA BUROCRACIA, TODO FIM DE ANO VOLTAM PRESENCIAL.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>19 de jun. de 2024</t>
+          <t>25 de nov. de 2024</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS BASEADOS NO SINDICATO DOS BANCARIOS</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>OS BENEFICIOS SAO OS MINIMOS ESTIPULADOS PELO SINDICATO E PELAS LEIS.
-SEM HOME OFFICE, GYMPASS, ETC</t>
+          <t>PROS: EMPRESA ATUALIZADA, SEMPRE MEXENDO COM TECNOLOGIAS NOVAS.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[-0.04132795 -0.01196339 -0.06508072 ...  0.01589517 -0.04623455
- -0.0179541 ]</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>3</v>
+          <t>DIFICIL PROMOCAO, MUITA BUROCRACIA, TODO FIM DE ANO VOLTAM PRESENCIAL.</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>[-0.01602102  0.00126419  0.01252013 ... -0.00280203 -0.0302542
+  0.05500225]</t>
+        </is>
       </c>
       <c r="H28" t="n">
         <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>18.85019683837891</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>-25.00862693786621</v>
+        <v>-0.3897257447242737</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-13.80351638793945</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ESTAGIO</t>
+          <t>ASSISTENTE JURIDICO</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA MODERNA, BONS BENEFICIOS PRA QUEM E EFETIVO | CONTRAS: ESTAGIARIO NAO TEM BENEFICIO, SOMENTE VT</t>
+          <t>PROS: PONTOS POSITIVOS : ORGANIZACAO E PERSPECTIVA DE CRESCIMENTO | CONTRAS: ENGESSADO
+POUCO INCLUSIVO
+PRESENCIAL
+HOSTIL</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>18 de jun. de 2024</t>
+          <t>29 de nov. de 2024</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA MODERNA, BONS BENEFICIOS PRA QUEM E EFETIVO</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ESTAGIARIO NAO TEM BENEFICIO, SOMENTE VT</t>
+          <t>PROS: PONTOS POSITIVOS : ORGANIZACAO E PERSPECTIVA DE CRESCIMENTO</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[-0.02734138 -0.02999246 -0.03334549 ... -0.01329912 -0.07397934
- -0.03350927]</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>3</v>
+          <t>ENGESSADO
+POUCO INCLUSIVO
+PRESENCIAL
+HOSTIL</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>[ 0.00894576 -0.00388305  0.02473573 ... -0.00192661 -0.05435414
+  0.01708661]</t>
+        </is>
       </c>
       <c r="H29" t="n">
         <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>35.59619903564453</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>4.307271003723145</v>
+        <v>0.720532238483429</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-27.00984573364258</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ADVOGADO JUNIOR</t>
+          <t>ANALISTA PLD JR.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PROS: HORARIO FLEXIVEL. EQUIPE MAIS JOVEM. | CONTRAS: NAO TEM HOME OFFICE NEM REGIME HIBRIDO. NAO TEM GYMPASS. EM 4 ANOS, RECEBI PLR APENAS 1X. PROMOCOES SEM CRITERIO, APENAS POR AMIZADE.</t>
+          <t>PROS: OTIMA EMPRESA PRA TRABALHAR E UM PREDIO LINDO | CONTRAS: EXISTE MUITA PANELINHA LA DENTRO E PRESENCIAL 100%</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>7 de jun. de 2024</t>
+          <t>2 de nov. de 2024</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PROS: HORARIO FLEXIVEL. EQUIPE MAIS JOVEM.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>NAO TEM HOME OFFICE NEM REGIME HIBRIDO. NAO TEM GYMPASS. EM 4 ANOS, RECEBI PLR APENAS 1X. PROMOCOES SEM CRITERIO, APENAS POR AMIZADE.</t>
+          <t>PROS: OTIMA EMPRESA PRA TRABALHAR E UM PREDIO LINDO</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[-0.07456157  0.01225584 -0.04043362 ...  0.00533382 -0.05560416
- -0.00459567]</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>3</v>
+          <t>EXISTE MUITA PANELINHA LA DENTRO E PRESENCIAL 100%</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>[-0.01021104 -0.00791429 -0.07070427 ...  0.0288446  -0.03560557
+  0.01936547]</t>
+        </is>
       </c>
       <c r="H30" t="n">
         <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>28.2377815246582</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>7.031382083892822</v>
+        <v>3.876024961471558</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-25.25936889648438</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ANALISTA JUNIOR</t>
+          <t>CONSULTOR DE CREDITO IMOBILIARIO</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PROS: A EMPRESA TEM CABECA DE EMPRESA FAMILIAR. | CONTRAS: NAO TEM POSSIBILIDADE DE CRESCIMENTO</t>
+          <t>PROS: BONS BENEFICIOS E AMBIENTE DE TRABALHO AGRADAVEL | CONTRAS: INDEFINICAO ENTRE FORMATO DE TRABALHO HIBRIDO E PRESENCIAL</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>26 de abr. de 2024</t>
+          <t>21 de out. de 2024</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>PROS: A EMPRESA TEM CABECA DE EMPRESA FAMILIAR.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>NAO TEM POSSIBILIDADE DE CRESCIMENTO</t>
+          <t>PROS: BONS BENEFICIOS E AMBIENTE DE TRABALHO AGRADAVEL</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[-0.02310286  0.03801021 -0.01149261 ... -0.01499705  0.00247539
-  0.01911782]</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>3</v>
+          <t>INDEFINICAO ENTRE FORMATO DE TRABALHO HIBRIDO E PRESENCIAL</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>[-0.02797371 -0.02313296 -0.02991615 ...  0.01230501 -0.05130238
+  0.02245873]</t>
+        </is>
       </c>
       <c r="H31" t="n">
         <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>8.891903877258301</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>4.632794857025146</v>
+        <v>13.98473453521729</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-21.11460494995117</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ANALISTA JUNIOR</t>
+          <t>DEV PLENO</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PROS: FACILIDADE DE COMUNICACAO COM A GESTAO, OPORTUNIDADE DE CRESCIMENTO, DISPONIBILIZACAO DE VALE REFEICAO E ALIMENTACAO, | CONTRAS: NAO ADESAO AO HOME OFFICE E REGIME HIBRIDO.</t>
+          <t>PROS: TECNOLOGIA ATUAL, BOM PRA QUEM NAO GOSTA DE TRABALHAR COM LEGADO | CONTRAS: VOLTARAM AO REGIME PRESENCIAL RECENTEMENTE</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>23 de fev. de 2024</t>
+          <t>14 de out. de 2024</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>PROS: FACILIDADE DE COMUNICACAO COM A GESTAO, OPORTUNIDADE DE CRESCIMENTO, DISPONIBILIZACAO DE VALE REFEICAO E ALIMENTACAO,</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>NAO ADESAO AO HOME OFFICE E REGIME HIBRIDO.</t>
+          <t>PROS: TECNOLOGIA ATUAL, BOM PRA QUEM NAO GOSTA DE TRABALHAR COM LEGADO</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[-0.00621002 -0.01614256 -0.04314301 ...  0.01560406 -0.0659321
-  0.00651388]</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>3</v>
+          <t>VOLTARAM AO REGIME PRESENCIAL RECENTEMENTE</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>[ 0.01611797  0.01080743 -0.037294   ... -0.01419023 -0.06588516
+ -0.03491707]</t>
+        </is>
       </c>
       <c r="H32" t="n">
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>30.07163429260254</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>-11.6062650680542</v>
+        <v>11.39652442932129</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-17.39779663085938</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ANALISTA</t>
+          <t>ESPECIALISTA JAVA</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PROS: POR SER BANCO TEM TODOS OS BENEFICIOS DE UM BANCARIO. | CONTRAS: NAO HA GESTAO EFETIVA, NAO HA FEEDBACK CONSTRUTIVO E NAO HA CARGOS SALARIOS.</t>
+          <t>PROS: EMPRESA COM BOM AMBIENTE DE TRABALHO SALARIO COMPETITIVO | CONTRAS: A EMPRESA ESTA AOS POUCOS REMOVENDO TRABALHO REMOTO, E DANDO PREFERENCIA AO MODELO PRESENCIAL</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>30 de jan. de 2024</t>
+          <t>29 de set. de 2024</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>PROS: POR SER BANCO TEM TODOS OS BENEFICIOS DE UM BANCARIO.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>NAO HA GESTAO EFETIVA, NAO HA FEEDBACK CONSTRUTIVO E NAO HA CARGOS SALARIOS.</t>
+          <t>PROS: EMPRESA COM BOM AMBIENTE DE TRABALHO SALARIO COMPETITIVO</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[-0.05770463 -0.00060064 -0.02195716 ...  0.01985839 -0.04596385
- -0.01761292]</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>3</v>
+          <t>A EMPRESA ESTA AOS POUCOS REMOVENDO TRABALHO REMOTO, E DANDO PREFERENCIA AO MODELO PRESENCIAL</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>[-0.03676634  0.01169682 -0.02794434 ...  0.01770367 -0.07985572
+  0.00353923]</t>
+        </is>
       </c>
       <c r="H33" t="n">
         <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>32.54915618896484</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>0.5824545621871948</v>
+        <v>13.94326019287109</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-12.52316761016846</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ANALISTA DE INTELIGENCIA ARTIFICIAL PLENO</t>
+          <t>DESENVOLVEDOR ESPECIALISTA</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PROS: PRA QUEM TRABALHAVA PRESENCIAL, PODIA USUFRUIR DE UMA EXCELENTE ESTRUTURA FISICA, PREDIO BEM TECNOLOGICO E ACONCHEGANTE | CONTRAS: NAO PAGA PL, AMBIENTE TOXICO, GESTAO MAL PREPARADA.</t>
+          <t>PROS: AMBIENTE BOM DE TRABALHO, COLEGAS QUE SE DAO BEM. | CONTRAS: IMPOSSIBILIDADE DE TRABALHO REMOTO. SOMENTE HIBRIDO OU PRESENCIAL.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>10 de jan. de 2024</t>
+          <t>26 de set. de 2024</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PROS: PRA QUEM TRABALHAVA PRESENCIAL, PODIA USUFRUIR DE UMA EXCELENTE ESTRUTURA FISICA, PREDIO BEM TECNOLOGICO E ACONCHEGANTE</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>NAO PAGA PL, AMBIENTE TOXICO, GESTAO MAL PREPARADA.</t>
+          <t>PROS: AMBIENTE BOM DE TRABALHO, COLEGAS QUE SE DAO BEM.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>[-0.00663638  0.00727701 -0.05336728 ... -0.00038423 -0.04437637
- -0.04258599]</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>3</v>
+          <t>IMPOSSIBILIDADE DE TRABALHO REMOTO. SOMENTE HIBRIDO OU PRESENCIAL.</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>[-0.0061265   0.0424964   0.00132409 ...  0.02722853 -0.05162622
+  0.00306863]</t>
+        </is>
       </c>
       <c r="H34" t="n">
         <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>10.93752002716064</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>25.66073226928711</v>
+        <v>14.074143409729</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-20.2273998260498</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ANALISTA JUNIOR</t>
+          <t>ANALISTA DE SEGURANCA DA INFORMACAO JUNIOR</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PROS: BOA REMUNERACAO, CLIMA OK. EQUIPE ENGAJADA. | CONTRAS: ZERO PROGRESSAO DE EMPREGO. MUITO QI</t>
+          <t>PROS: OPORTUNIDADE DE DESENVOLVIMENTO CONTINUO, AMBIENTE DESAFIADOR, EQUIPE DE SEGURANCA MANTEM UM BOM CLIMA NO LOCAL, BONS BENEFICIOS. | CONTRAS: PRESENCIAL OU NO MAXIMO HIBRIDO. METAS COM PRAZOS CURTOS PARA ATINGIR. EM ALGUMAS EQUIPES O GESTOR PODE MICROGERENCIAR.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>30 de jan. de 2024</t>
+          <t>27 de ago. de 2024</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PROS: BOA REMUNERACAO, CLIMA OK. EQUIPE ENGAJADA.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ZERO PROGRESSAO DE EMPREGO. MUITO QI</t>
+          <t>PROS: OPORTUNIDADE DE DESENVOLVIMENTO CONTINUO, AMBIENTE DESAFIADOR, EQUIPE DE SEGURANCA MANTEM UM BOM CLIMA NO LOCAL, BONS BENEFICIOS.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>[-0.06102983  0.03778817 -0.02102073 ... -0.0339733   0.02449108
-  0.02094822]</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>3</v>
+          <t>PRESENCIAL OU NO MAXIMO HIBRIDO. METAS COM PRAZOS CURTOS PARA ATINGIR. EM ALGUMAS EQUIPES O GESTOR PODE MICROGERENCIAR.</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>[-0.03836274 -0.03272211 -0.05195785 ...  0.01811153  0.00101798
+ -0.03353928]</t>
+        </is>
       </c>
       <c r="H35" t="n">
         <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>4.996294021606445</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>-11.7168083190918</v>
+        <v>1.581567049026489</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-8.528098106384277</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ANALISTA PLENO</t>
+          <t>SENIOR SOFTWARE DEVELOPER</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PROS: EQUILIBRIO ENTRE PESSOAL E PROFISSIONAL. SALARIO JUSTO. | CONTRAS: NAO POSSUI GYMPASS. POUCAS PROMOCOES.</t>
+          <t>PROS: FLEXIBILIDADE, SALARIO, BONUS, VR, PROJETOS LEGAIS | CONTRAS: PRESENCIAL, RH, MUDANCAS REPENTINAS DA ALTA GESTAO</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>16 de jan. de 2024</t>
+          <t>17 de set. de 2024</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PROS: EQUILIBRIO ENTRE PESSOAL E PROFISSIONAL. SALARIO JUSTO.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>NAO POSSUI GYMPASS. POUCAS PROMOCOES.</t>
+          <t>PROS: FLEXIBILIDADE, SALARIO, BONUS, VR, PROJETOS LEGAIS</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>[-0.03282507 -0.02569795 -0.0353842  ... -0.05096343 -0.0169729
- -0.04326417]</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>3</v>
+          <t>PRESENCIAL, RH, MUDANCAS REPENTINAS DA ALTA GESTAO</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>[-0.029526    0.01786759 -0.00287653 ...  0.02043194 -0.03840799
+  0.00841968]</t>
+        </is>
       </c>
       <c r="H36" t="n">
         <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>41.61343002319336</v>
+        <v>3</v>
       </c>
       <c r="J36" t="n">
-        <v>-7.626136779785156</v>
+        <v>6.554471015930176</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-17.45358467102051</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
+          <t>ANALISTA BUSINESS INTELLIGENCE (BI)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PROS: SALARIO BOM
-O 
-TIME 
-EXELENTE | CONTRAS: NAO 
-TENHO C
-CONTAS
-NO INTER</t>
+          <t>PROS: CONFIANCA 
+SALARIO
+BENEFICIOS 
+EQUIPE 
+CRESCIMENTO | CONTRAS: PLANO DE CARREIRA
+PLR
+FEEDBACKS
+PRESENCIAL
+ORGANOGRAMA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>17 de jan. de 2024</t>
+          <t>20 de set. de 2024</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>PROS: SALARIO BOM
-O 
-TIME 
-EXELENTE</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>NAO 
-TENHO C
-CONTAS
-NO INTER</t>
+          <t>PROS: CONFIANCA 
+SALARIO
+BENEFICIOS 
+EQUIPE 
+CRESCIMENTO</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>[ 4.0511344e-02 -9.8399221e-05 -7.4254036e-02 ...  8.7629752e-03
- -1.6050365e-02 -1.4656734e-02]</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>3</v>
+          <t>PLANO DE CARREIRA
+PLR
+FEEDBACKS
+PRESENCIAL
+ORGANOGRAMA</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>[-0.04652961  0.00596849 -0.02091633 ...  0.0009602  -0.00582317
+  0.00035973]</t>
+        </is>
       </c>
       <c r="H37" t="n">
         <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>44.21541595458984</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
-        <v>6.823609828948975</v>
+        <v>-0.7106750011444092</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-19.30636024475098</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ASSISTENTE COMERCIAL</t>
+          <t>BUSINESS INTELLIGENCE ANALYST</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PROS: TRABALHA POUCO, O SERVICO E LEGAL , LOCAL DE TRABALHO BOM | CONTRAS: NAO TEM PERSPECTIVA DE CRESCIMENTO</t>
+          <t>PROS: * CULTURA, * VALE ALIMENTACAO E REFEICAO | CONTRAS: * TRABALHO PRESENCIAL, INFELIZMENTE O INTER NAO ADOTA O MODELO HIBRIDO DE TRABALHO.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>27 de nov. de 2023</t>
+          <t>29 de ago. de 2024</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>PROS: TRABALHA POUCO, O SERVICO E LEGAL , LOCAL DE TRABALHO BOM</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>NAO TEM PERSPECTIVA DE CRESCIMENTO</t>
+          <t>PROS: * CULTURA, * VALE ALIMENTACAO E REFEICAO</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[-0.04230167  0.00592769 -0.02066756 ... -0.01828103  0.01705722
- -0.00970391]</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>3</v>
+          <t>* TRABALHO PRESENCIAL, INFELIZMENTE O INTER NAO ADOTA O MODELO HIBRIDO DE TRABALHO.</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>[-0.01669043  0.01544436 -0.03681854 ...  0.03294783 -0.03137436
+  0.0255557 ]</t>
+        </is>
       </c>
       <c r="H38" t="n">
         <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>9.077552795410156</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>4.527656555175781</v>
+        <v>14.39737987518311</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-21.84081077575684</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ANALISTA DE PROCESSOS SENIOR</t>
+          <t>ANALISTA JUNIOR</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE INOVACAO COLABORACAO DIRECIONAMENTO TRANSPARENCIA | CONTRAS: NAO SE APLICA NO MOMENTO</t>
+          <t>PROS: CLIMA E BENEFICIOS SALARIO PESSOAS LOCAL | CONTRAS: MODELO PRESENCIAL NAO E O IDEAL</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>18 de dez. de 2023</t>
+          <t>15 de ago. de 2024</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE INOVACAO COLABORACAO DIRECIONAMENTO TRANSPARENCIA</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>NAO SE APLICA NO MOMENTO</t>
+          <t>PROS: CLIMA E BENEFICIOS SALARIO PESSOAS LOCAL</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[-0.00438838  0.03356946 -0.05393551 ... -0.00237335 -0.02612469
- -0.04360159]</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>3</v>
+          <t>MODELO PRESENCIAL NAO E O IDEAL</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>[-0.02130434 -0.01228214 -0.02957812 ...  0.02286534 -0.04956627
+ -0.01770853]</t>
+        </is>
       </c>
       <c r="H39" t="n">
         <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>44.17824172973633</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>3.01695442199707</v>
+        <v>10.3701114654541</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-21.70744705200195</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SQUAD LEADER</t>
+          <t>ASSISTENTE DE SUCESSO DO CLIENTE</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PROS: OTIMOS BENEFICIOS
-AMBIENTE TRANQUILO
-OTIMA CULTURA | CONTRAS: PLR PODE NAO SER PAGA</t>
+          <t>PROS: FORNECEM MUITOS MIMOS E BENEFICIOS PARA OS FUNCIONARIOS, COMO CARTAO BLACK E ASSINATURA DO DUO GOURMET, SORVETE EM UMA DATA COMEMORATIVA, GIFT CARD, ETC. ALEM DISSO, O VR E MUITO BOM. | CONTRAS: NAO ADERIREM A MODALIDADE HIBRIDA OU TOTALMENTE REMOTA POS PANDEMIA. O SERVICO PODE TRANQUILAMENTE SER FEITO DE FORMA REMOTA, ASSIM COMO FOI DURANTE A PANDEMIA, SEM NENHUM PREJUIZO.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>18 de dez. de 2023</t>
+          <t>22 de mai. de 2024</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>PROS: OTIMOS BENEFICIOS
-AMBIENTE TRANQUILO
-OTIMA CULTURA</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>PLR PODE NAO SER PAGA</t>
+          <t>PROS: FORNECEM MUITOS MIMOS E BENEFICIOS PARA OS FUNCIONARIOS, COMO CARTAO BLACK E ASSINATURA DO DUO GOURMET, SORVETE EM UMA DATA COMEMORATIVA, GIFT CARD, ETC. ALEM DISSO, O VR E MUITO BOM.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[-0.04053733  0.02493663 -0.02192276 ... -0.00712036 -0.02905498
-  0.01353808]</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>3</v>
+          <t>NAO ADERIREM A MODALIDADE HIBRIDA OU TOTALMENTE REMOTA POS PANDEMIA. O SERVICO PODE TRANQUILAMENTE SER FEITO DE FORMA REMOTA, ASSIM COMO FOI DURANTE A PANDEMIA, SEM NENHUM PREJUIZO.</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>[-0.0048904   0.02640477 -0.02015734 ...  0.00309795 -0.0738818
+  0.01202965]</t>
+        </is>
       </c>
       <c r="H40" t="n">
         <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>23.23224639892578</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>9.611231803894043</v>
+        <v>17.04290199279785</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-19.68966102600098</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TECHNICAL PRODUCT MANAGER</t>
+          <t>FRONTEND DEVELOPER</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA EM CONSTANTE DESENVOLVIMENTO COM OTIMAS OPORTUNIDADES DE CRESCIMENTO PESSOAL E PROFISSIONAL. | CONTRAS: NAO REALIZAREI A AVALIACAO NESSE MOMENTO</t>
+          <t>PROS: AMBIENTE DE TRABALHO AMIGAVEL NA MINHA GESTAO. | CONTRAS: REGIME "HIBRIDO" PRESENCIAL, ONDE A GENTE TEM QUE IR PARA A EMPRESA NO MINIMO 3X NA SEMANA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>22 de nov. de 2023</t>
+          <t>24 de jun. de 2024</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA EM CONSTANTE DESENVOLVIMENTO COM OTIMAS OPORTUNIDADES DE CRESCIMENTO PESSOAL E PROFISSIONAL.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>NAO REALIZAREI A AVALIACAO NESSE MOMENTO</t>
+          <t>PROS: AMBIENTE DE TRABALHO AMIGAVEL NA MINHA GESTAO.</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[-0.00097303  0.0346932  -0.0491894  ... -0.0216941  -0.01086152
-  0.01027691]</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>3</v>
+          <t>REGIME "HIBRIDO" PRESENCIAL, ONDE A GENTE TEM QUE IR PARA A EMPRESA NO MINIMO 3X NA SEMANA</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>[-0.02016704  0.00849408 -0.02590217 ...  0.05731423 -0.04219189
+  0.01139898]</t>
+        </is>
       </c>
       <c r="H41" t="n">
         <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>45.12432861328125</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>1.952988266944885</v>
+        <v>13.12259387969971</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-21.26086235046387</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SOFTWARE ENGINEER</t>
+          <t>ANALISTA JUNIOR</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>PROS: - BOA CULTURA NA EQUIPE (NAO SEI COMO ERA NAS OUTRAS) | CONTRAS: - NAO BATER PONTO, VOCE ACABA FAZENDO HORA EXTRA NAO REMUNERADA - VOLTOU A SER OBRIGATORIO PRESENCIAL</t>
+          <t>PROS: REMUNERACAO E TICKET SUPERIORES A MEDIA DO MERCADO | CONTRAS: TRABALHO, EM REGRA, 100% PRESENCIAL.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>15 de ago. de 2023</t>
+          <t>9 de jul. de 2024</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>PROS: - BOA CULTURA NA EQUIPE (NAO SEI COMO ERA NAS OUTRAS)</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>- NAO BATER PONTO, VOCE ACABA FAZENDO HORA EXTRA NAO REMUNERADA - VOLTOU A SER OBRIGATORIO PRESENCIAL</t>
+          <t>PROS: REMUNERACAO E TICKET SUPERIORES A MEDIA DO MERCADO</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[ 0.01864249  0.00347135 -0.02231896 ... -0.00463995 -0.0433897
-  0.01156914]</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>3</v>
+          <t>TRABALHO, EM REGRA, 100% PRESENCIAL.</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>[-0.01095673  0.00585248 -0.05050302 ...  0.01934971 -0.02732784
+  0.01088443]</t>
+        </is>
       </c>
       <c r="H42" t="n">
         <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>-22.90950775146484</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
-        <v>-18.41493034362793</v>
+        <v>6.226535797119141</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-24.26898574829102</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TECH ANALYST</t>
+          <t>ANALISTA COMPLIANCE PL</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PROS: TIMES BEM CAPACITADOS, EQUIPAMENTO DE QUALIDADE, SALARIOS PAGOS EM DIA, VALE ALIMENTACAO/REFEICAO ALTO. | CONTRAS: NAO ESTAO OFERECENDO CARGOS REMOTOS.</t>
+          <t>PROS: BENEFICIOS, ESTRUTURA, LOCALIZACAO, SALARIO . | CONTRAS: SER 100% PRESENCIAL, ELEVADORES, .</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>7 de out. de 2023</t>
+          <t>1 de jul. de 2024</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>PROS: TIMES BEM CAPACITADOS, EQUIPAMENTO DE QUALIDADE, SALARIOS PAGOS EM DIA, VALE ALIMENTACAO/REFEICAO ALTO.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>NAO ESTAO OFERECENDO CARGOS REMOTOS.</t>
+          <t>PROS: BENEFICIOS, ESTRUTURA, LOCALIZACAO, SALARIO .</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[-0.0335818   0.00726389 -0.04484436 ... -0.02515757 -0.03870143
- -0.03360182]</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>3</v>
+          <t>SER 100% PRESENCIAL, ELEVADORES, .</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>[-0.00590224 -0.01635947 -0.03692302 ...  0.02030727  0.00050024
+  0.03071524]</t>
+        </is>
       </c>
       <c r="H43" t="n">
         <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>35.39962387084961</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1604959219694138</v>
+        <v>5.053899765014648</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-24.34170341491699</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ANALISTA DE CREDITO JUNIOR</t>
+          <t>DESENVOLVEDOR PLENO</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS COMO VALE ALIMENTACAO ACIMA DA MEDIA BOA ESTRUTURA | CONTRAS: PESSIMA GESTAO NAO LIGAM PARA OS FUNCIONARIOS GESTAO ATRASADA</t>
+          <t>PROS: AMBIENTE SAUDAVEL, PAGAMENTO EM DIA, VALE REFEICAO E ALIMENTACAO MUITO BONS | CONTRAS: PRESENCIAL, MUITAS DECISOES TOP DOWN SEM PLANEJAMENTO</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>25 de set. de 2023</t>
+          <t>29 de mai. de 2024</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS COMO VALE ALIMENTACAO ACIMA DA MEDIA BOA ESTRUTURA</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>PESSIMA GESTAO NAO LIGAM PARA OS FUNCIONARIOS GESTAO ATRASADA</t>
+          <t>PROS: AMBIENTE SAUDAVEL, PAGAMENTO EM DIA, VALE REFEICAO E ALIMENTACAO MUITO BONS</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[-0.0013792   0.0120188  -0.06318771 ... -0.00899168 -0.0467217
- -0.00921193]</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>3</v>
+          <t>PRESENCIAL, MUITAS DECISOES TOP DOWN SEM PLANEJAMENTO</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>[-0.00155248  0.00417445 -0.0323936  ... -0.01322622  0.01064199
+  0.00918604]</t>
+        </is>
       </c>
       <c r="H44" t="n">
         <v>3</v>
       </c>
       <c r="I44" t="n">
-        <v>-11.69264221191406</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>-4.301849842071533</v>
+        <v>3.661817312240601</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-16.53544235229492</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ANALISTA</t>
+          <t>ENGENHEIRO DE DADOS PLENO</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PROS: BOM SALARIO E BENEFICIOS E SEGUROS | CONTRAS: NAO TEM CRESCIMENTO PROFISSIONAL A CURTO PRAZO</t>
+          <t>PROS: TECNOLOGIAS MAIS ATUAIS, CULTURA OPEN SOURCE, CULTURA DE DESENVOLVIMENTO E GOVERNANCA DE DADOS | CONTRAS: SALARIO E MODELO DE EMPREGO HIBRIDO.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>16 de out. de 2023</t>
+          <t>20 de mai. de 2024</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>PROS: BOM SALARIO E BENEFICIOS E SEGUROS</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>NAO TEM CRESCIMENTO PROFISSIONAL A CURTO PRAZO</t>
+          <t>PROS: TECNOLOGIAS MAIS ATUAIS, CULTURA OPEN SOURCE, CULTURA DE DESENVOLVIMENTO E GOVERNANCA DE DADOS</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[-0.07294087  0.02091486 -0.03279983 ... -0.00551457 -0.0294561
-  0.00532055]</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>3</v>
+          <t>SALARIO E MODELO DE EMPREGO HIBRIDO.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>[-0.03410498  0.00182203 -0.05549632 ...  0.03671772 -0.04193364
+  0.0381172 ]</t>
+        </is>
       </c>
       <c r="H45" t="n">
         <v>3</v>
       </c>
       <c r="I45" t="n">
-        <v>9.459051132202148</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>3.931509494781494</v>
+        <v>15.82377624511719</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-23.58089065551758</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR PLENO</t>
+          <t>ADVISOR</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PROS: SALARIO COMPATIVEL COM O MERCADO GESTORES BONS BENEFICIOS DADOS PELO SINDICATO BANCARIO | CONTRAS: SO DIMINUI BENEFICIOS SEM BRANDING INTERNO SEM HOME OFFICE CARREIRAS ESTAGNADAS</t>
+          <t>PROS: AMBIENTE AGRADAVEL, ESTRUTURA EXCELENTE, OTIMA CULTURA | CONTRAS: 100% PRESENCIAL PARA UM BANCO DIGITAL COMECANDO A COLOCAR METAS ALTAS COMO BANCOS CONVENCIONAIS</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>23 de ago. de 2023</t>
+          <t>21 de mai. de 2024</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>PROS: SALARIO COMPATIVEL COM O MERCADO GESTORES BONS BENEFICIOS DADOS PELO SINDICATO BANCARIO</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SO DIMINUI BENEFICIOS SEM BRANDING INTERNO SEM HOME OFFICE CARREIRAS ESTAGNADAS</t>
+          <t>PROS: AMBIENTE AGRADAVEL, ESTRUTURA EXCELENTE, OTIMA CULTURA</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[-0.0600067  -0.00369575 -0.02965023 ... -0.01575581 -0.02136135
-  0.02342872]</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>3</v>
+          <t>100% PRESENCIAL PARA UM BANCO DIGITAL COMECANDO A COLOCAR METAS ALTAS COMO BANCOS CONVENCIONAIS</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>[-0.01730546 -0.04033493 -0.04737912 ...  0.01170828 -0.03661618
+ -0.01998857]</t>
+        </is>
       </c>
       <c r="H46" t="n">
         <v>3</v>
       </c>
       <c r="I46" t="n">
-        <v>32.81599426269531</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>-15.49727630615234</v>
+        <v>6.43342113494873</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-26.11862564086914</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>COORDENADOR</t>
+          <t>DEV I</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA MUITO LEGAL E ABERTA. | CONTRAS: NAO TEM HOME OFFICE E NAO SAO ABERTOS AO ERRO.</t>
+          <t>PROS: AMBIENTE E USO DE TECNOLOGIA DE PONTA | CONTRAS: SISTEMA HIBRIDO PARA A TI</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>10 de set. de 2023</t>
+          <t>20 de mai. de 2024</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA MUITO LEGAL E ABERTA.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>NAO TEM HOME OFFICE E NAO SAO ABERTOS AO ERRO.</t>
+          <t>PROS: AMBIENTE E USO DE TECNOLOGIA DE PONTA</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[-0.00125005 -0.03532332 -0.04551557 ... -0.01581206 -0.06580534
- -0.02316671]</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>3</v>
+          <t>SISTEMA HIBRIDO PARA A TI</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>[-0.03604996 -0.01304029 -0.03730661 ...  0.02044741 -0.00815835
+  0.03348633]</t>
+        </is>
       </c>
       <c r="H47" t="n">
         <v>3</v>
       </c>
       <c r="I47" t="n">
-        <v>36.25703811645508</v>
+        <v>3</v>
       </c>
       <c r="J47" t="n">
-        <v>-8.494992256164551</v>
+        <v>16.38372993469238</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-24.40081977844238</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ANALISTA SENIOR</t>
+          <t>TECH ANALYST</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA DIGITAL TIME MISTO EQUIPE ENGAJADA OPORTUNIDADE DE APRENDIZADO SUPERAPP | CONTRAS: DIFICIL ACESSO COM TRANSPORTE PUBLICO NO PREDIO DE SP, NAO PAGAM PLR.</t>
+          <t>PROS: AMBIENTE SAUDAVEL
+BENEFICIOS COMPATIVEIS COM A CATEGORIA | CONTRAS: TRABALHO PRESENCIAL E HORARIO FIXO</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>23 de ago. de 2023</t>
+          <t>8 de mai. de 2024</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA DIGITAL TIME MISTO EQUIPE ENGAJADA OPORTUNIDADE DE APRENDIZADO SUPERAPP</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>DIFICIL ACESSO COM TRANSPORTE PUBLICO NO PREDIO DE SP, NAO PAGAM PLR.</t>
+          <t>PROS: AMBIENTE SAUDAVEL
+BENEFICIOS COMPATIVEIS COM A CATEGORIA</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[-0.0215637   0.02614111 -0.00037687 ...  0.03249779 -0.04739735
-  0.01420721]</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>3</v>
+          <t>TRABALHO PRESENCIAL E HORARIO FIXO</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>[-0.00211129 -0.00563196 -0.03501553 ...  0.02274149 -0.0361327
+  0.02899092]</t>
+        </is>
       </c>
       <c r="H48" t="n">
         <v>3</v>
       </c>
       <c r="I48" t="n">
-        <v>12.05890083312988</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>25.49777221679688</v>
+        <v>7.53527307510376</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-19.48703002929688</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ASSISTENTE</t>
+          <t>DAILY BANKER</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PROS: FLEXIBILIDADE, SETOR BANCARIO COM BOA ATUACAO DO SINDICATO DA CATEGORIA. | CONTRAS: NAO E TODO ANO QUE TEM PL OU BONIFICACAO.</t>
+          <t>PROS: APRENDIZADO, CLIMA, VALES ALIMENTACAO E REFEICAO | CONTRAS: BONUS, COBRANCA, FALTA DE TRABALHO HIBRIDO</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>9 de ago. de 2023</t>
+          <t>20 de mar. de 2024</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>PROS: FLEXIBILIDADE, SETOR BANCARIO COM BOA ATUACAO DO SINDICATO DA CATEGORIA.</t>
+          <t>São Paulo, SP</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>NAO E TODO ANO QUE TEM PL OU BONIFICACAO.</t>
+          <t>PROS: APRENDIZADO, CLIMA, VALES ALIMENTACAO E REFEICAO</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[-0.04781566 -0.01483491 -0.03888751 ...  0.00874955 -0.05375395
-  0.03044045]</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>3</v>
+          <t>BONUS, COBRANCA, FALTA DE TRABALHO HIBRIDO</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>[-0.03798698 -0.00669592 -0.02583661 ...  0.03388658 -0.05958154
+ -0.00233983]</t>
+        </is>
       </c>
       <c r="H49" t="n">
         <v>3</v>
       </c>
       <c r="I49" t="n">
-        <v>28.82648086547852</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
-        <v>9.205607414245605</v>
+        <v>16.58491897583008</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-23.03619956970215</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ANALISTA JUNIOR</t>
+          <t>IOS DEVELOPER</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PROS: BOM SALARIO BONS BENEFICIOS AMBIENTE LEGAL | CONTRAS: NAO TEM HOME OFFICE NENHUM DIA DA SEMANA</t>
+          <t>PROS: SALARIO BOM BENEFICIOS BONS TIME E LIDERANCA OTIMOS | CONTRAS: QUANDO TERMINOU A PANDEMIA, A EMPRESA COMECOU A FORCAR A VOLTA AO PRESENCIAL, A PARTIR DAI FOI TUDO LADEIRA A BAIXO</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>7 de ago. de 2023</t>
+          <t>16 de jan. de 2024</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>PROS: BOM SALARIO BONS BENEFICIOS AMBIENTE LEGAL</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>NAO TEM HOME OFFICE NENHUM DIA DA SEMANA</t>
+          <t>PROS: SALARIO BOM BENEFICIOS BONS TIME E LIDERANCA OTIMOS</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[-0.02642378 -0.03322826 -0.03264328 ...  0.00649812 -0.05491585
- -0.01144214]</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>3</v>
+          <t>QUANDO TERMINOU A PANDEMIA, A EMPRESA COMECOU A FORCAR A VOLTA AO PRESENCIAL, A PARTIR DAI FOI TUDO LADEIRA A BAIXO</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>[-0.00886755  0.00672509 -0.04435385 ...  0.02535574 -0.05670657
+  0.029976  ]</t>
+        </is>
       </c>
       <c r="H50" t="n">
         <v>3</v>
       </c>
       <c r="I50" t="n">
-        <v>35.51052856445312</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
-        <v>-8.796058654785156</v>
+        <v>14.439697265625</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-14.9521369934082</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>COORDENADOR</t>
+          <t>ASSISTENTE</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PROS: BOAS E NOVAS TECNOLOGIAS ABERTURA PARA NOVAS IDEIAS LIDERES REFERENCIA VALE ALIMENTACAO E REFEICAO | CONTRAS: 0% HOME OFFICE COMUNICACAO CORPORATIVA NAO EFETIVA SEM FLEXIBILIDADE DE BENEFICIOS</t>
+          <t>PROS: BONS BENEFICIOS;
+DESENVOLVIMENTO DE CARREIRA;
+LIDER HUMANA E MUITO CAPACITADA | CONTRAS: DESORGANIZACAO;
+CULTURA DE DADOS IMATURA;
+POUCA DIVERSIDADE;
+100% PRESENCIAL.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>19 de jun. de 2023</t>
+          <t>16 de fev. de 2024</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>PROS: BOAS E NOVAS TECNOLOGIAS ABERTURA PARA NOVAS IDEIAS LIDERES REFERENCIA VALE ALIMENTACAO E REFEICAO</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0% HOME OFFICE COMUNICACAO CORPORATIVA NAO EFETIVA SEM FLEXIBILIDADE DE BENEFICIOS</t>
+          <t>PROS: BONS BENEFICIOS;
+DESENVOLVIMENTO DE CARREIRA;
+LIDER HUMANA E MUITO CAPACITADA</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>[-0.06224355  0.03625593 -0.03507142 ...  0.00752351 -0.03629234
-  0.00353786]</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>3</v>
+          <t>DESORGANIZACAO;
+CULTURA DE DADOS IMATURA;
+POUCA DIVERSIDADE;
+100% PRESENCIAL.</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>[-0.01913971 -0.02648833 -0.03921515 ...  0.02159485 -0.04956892
+  0.01284237]</t>
+        </is>
       </c>
       <c r="H51" t="n">
         <v>3</v>
       </c>
       <c r="I51" t="n">
-        <v>32.54102325439453</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>-8.193022727966309</v>
+        <v>6.468878746032715</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-28.0692024230957</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>DEV-3</t>
+          <t>SOFTWARE DEVELOPER I</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE COLABORATIVO E COM MUITOS DESAFIOS PRA QUEM DESEJA APRENDER. OTIMO VALE ALIMENTACAO FEEDBACKS CONSTANTES | CONTRAS: SEM ESCRITORIO NA CIDADE DO RECIFE</t>
+          <t>PROS: LIDERANCAS MUITO BOAS FEEDBACK PRODUTIVO EMPRESA BEM ORGANIZADA PRIORIZA SEGURANCA | CONTRAS: TRABALHO PRESENCIAL EM UMA LOCALIZACAO RUIM</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>27 de jun. de 2023</t>
+          <t>25 de jan. de 2024</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE COLABORATIVO E COM MUITOS DESAFIOS PRA QUEM DESEJA APRENDER. OTIMO VALE ALIMENTACAO FEEDBACKS CONSTANTES</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SEM ESCRITORIO NA CIDADE DO RECIFE</t>
+          <t>PROS: LIDERANCAS MUITO BOAS FEEDBACK PRODUTIVO EMPRESA BEM ORGANIZADA PRIORIZA SEGURANCA</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>[-0.04353111  0.01704893  0.01451392 ... -0.0125872  -0.00779553
-  0.05888566]</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
-        <v>3</v>
+          <t>TRABALHO PRESENCIAL EM UMA LOCALIZACAO RUIM</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>[-0.03022974  0.01149145 -0.0239025  ...  0.00643007 -0.04882653
+ -0.0148055 ]</t>
+        </is>
       </c>
       <c r="H52" t="n">
         <v>3</v>
       </c>
       <c r="I52" t="n">
-        <v>24.49633026123047</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>-21.99861907958984</v>
+        <v>8.261871337890625</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-18.65019226074219</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ESTAGIARIO</t>
+          <t>ANALISTA JUNIOR</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PROS: BOLSA BOA, CHANCE DE APRENDIZAGEM | CONTRAS: SEM VALORIZACAO, TRABALHO DE ASSISTENTE PARA ESTAGIO, SEM NENHUM BENEFICIO, PESSIMO CLIMA</t>
+          <t>PROS: BOA REMUNERACAO E CULTURA DAS PESSOAS | CONTRAS: PODERIA SER 100% HOME OFFICE</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>22 de jun. de 2023</t>
+          <t>3 de jan. de 2024</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>PROS: BOLSA BOA, CHANCE DE APRENDIZAGEM</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SEM VALORIZACAO, TRABALHO DE ASSISTENTE PARA ESTAGIO, SEM NENHUM BENEFICIO, PESSIMO CLIMA</t>
+          <t>PROS: BOA REMUNERACAO E CULTURA DAS PESSOAS</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[-0.0243002   0.02146174 -0.03187793 ... -0.02116388 -0.0351037
-  0.02001691]</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
-        <v>3</v>
+          <t>PODERIA SER 100% HOME OFFICE</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>[ 0.00423396  0.01900599 -0.04799246 ... -0.02205734 -0.04497654
+  0.01368951]</t>
+        </is>
       </c>
       <c r="H53" t="n">
         <v>3</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.7782031893730164</v>
+        <v>3</v>
       </c>
       <c r="J53" t="n">
-        <v>-8.030920028686523</v>
+        <v>6.1292724609375</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-14.28884506225586</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>COORDENADOR</t>
+          <t>ANALISTA PLENO</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PROS: ERA UMA STARTUP INOVADORA COM GRANDE POTENCIAL | CONTRAS: ACABOU COM O MODELO HOME OFFICE DE MANEIRA BRUTA, SEM RESPEITO AOS VARIOS COLABORADORES</t>
+          <t>PROS: OPORTUNIDADE DE CARREIRA
+AMBIENTE DESAFIADOR
+BONS BENEFICIOS | CONTRAS: PLR
+NAO POSSUI PREVIDENCIA COMPLEMENTAR
+100% PRESENCIAL</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>29 de mar. de 2023</t>
+          <t>13 de dez. de 2023</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>PROS: ERA UMA STARTUP INOVADORA COM GRANDE POTENCIAL</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ACABOU COM O MODELO HOME OFFICE DE MANEIRA BRUTA, SEM RESPEITO AOS VARIOS COLABORADORES</t>
+          <t>PROS: OPORTUNIDADE DE CARREIRA
+AMBIENTE DESAFIADOR
+BONS BENEFICIOS</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[-0.01882992  0.01385336 -0.03216265 ... -0.01331801 -0.06572375
-  0.00095199]</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>3</v>
+          <t>PLR
+NAO POSSUI PREVIDENCIA COMPLEMENTAR
+100% PRESENCIAL</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>[-0.05710358  0.00225257 -0.00689728 ...  0.00310535 -0.0468839
+  0.01529546]</t>
+        </is>
       </c>
       <c r="H54" t="n">
         <v>3</v>
       </c>
       <c r="I54" t="n">
-        <v>39.19731903076172</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
-        <v>-12.56134510040283</v>
+        <v>10.82972049713135</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-24.64760208129883</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ANALISTA SENIOR</t>
+          <t>SQUAD LEADER</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PROS: SALARIOS E BENEFICIOS, LIDERANCA COMPROMETIDA | CONTRAS: NAO POSSUI HOME DEFORMA DEFINIDA.</t>
+          <t>PROS: EMPRESA DINAMICA E ORIENTADA A CRESCIMENTO, SEMPRE INVESTINDO EM PREPARACAO DA LIDERANCA PARA FORMAR BEM AS PESSOAS. PESSOAS ENGAJADAS E FAZER O SEU MELHOR. | CONTRAS: PRESENCIAL AQUI EM BELO HORIZONTE</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>26 de mai. de 2023</t>
+          <t>25 de ago. de 2023</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>PROS: SALARIOS E BENEFICIOS, LIDERANCA COMPROMETIDA</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>NAO POSSUI HOME DEFORMA DEFINIDA.</t>
+          <t>PROS: EMPRESA DINAMICA E ORIENTADA A CRESCIMENTO, SEMPRE INVESTINDO EM PREPARACAO DA LIDERANCA PARA FORMAR BEM AS PESSOAS. PESSOAS ENGAJADAS E FAZER O SEU MELHOR.</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[ 0.01055658 -0.01357716 -0.0566688  ... -0.00583292 -0.078072
- -0.00301331]</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
-        <v>3</v>
+          <t>PRESENCIAL AQUI EM BELO HORIZONTE</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>[-0.0267741   0.01040121 -0.01733412 ...  0.01923434 -0.00520305
+  0.02066994]</t>
+        </is>
       </c>
       <c r="H55" t="n">
         <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>37.32601547241211</v>
+        <v>3</v>
       </c>
       <c r="J55" t="n">
-        <v>-7.973867893218994</v>
+        <v>7.304415225982666</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-21.27171325683594</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ANALISTA JUNIOR</t>
+          <t>TECH MANAGER</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PROS: ALIMENTACAO E REFEICAO. AREA DE DESCONTRACAO KAIZEN | CONTRAS: LIDERES FRACOS FEADBACKS FRACO NAO TEM PROGRAMAS DE INCENTIVO AO ESPORTE (GYMPASS) PL E PCR NAO EXISTEM HOME OFFICE NAO EXISTE APAGAR INCENDIO TODA HORA, POIS MUITA COISA E MAL ESTRUTURADA</t>
+          <t>PROS: OTIMO AMBIENTE , BONS BENEFICIOS, OTIMOS GERENTES . | CONTRAS: SALARIO DEFASADO , 2 ANOS SEM PLR, LAY OFF EXPRESSIVO , 100% PRESENCIAL .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>10 de jan. de 2023</t>
+          <t>31 de ago. de 2023</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>PROS: ALIMENTACAO E REFEICAO. AREA DE DESCONTRACAO KAIZEN</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>LIDERES FRACOS FEADBACKS FRACO NAO TEM PROGRAMAS DE INCENTIVO AO ESPORTE (GYMPASS) PL E PCR NAO EXISTEM HOME OFFICE NAO EXISTE APAGAR INCENDIO TODA HORA, POIS MUITA COISA E MAL ESTRUTURADA</t>
+          <t>PROS: OTIMO AMBIENTE , BONS BENEFICIOS, OTIMOS GERENTES .</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[-0.05660241 -0.02920966 -0.02934808 ... -0.03161043 -0.02654189
-  0.00678906]</t>
-        </is>
-      </c>
-      <c r="G56" t="n">
-        <v>3</v>
+          <t>SALARIO DEFASADO , 2 ANOS SEM PLR, LAY OFF EXPRESSIVO , 100% PRESENCIAL .</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>[-0.06325245 -0.01610595 -0.02022112 ...  0.00908009 -0.03945377
+  0.00033766]</t>
+        </is>
       </c>
       <c r="H56" t="n">
         <v>3</v>
       </c>
       <c r="I56" t="n">
-        <v>28.21504402160645</v>
+        <v>3</v>
       </c>
       <c r="J56" t="n">
-        <v>13.40151119232178</v>
+        <v>3.577320098876953</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-21.86603546142578</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SENIOR SOFTWARE ENGINEER</t>
+          <t>DESENVOLVEDOR PLENO</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS E SALARIO ALEM DO PAGAMENTO DE PARTICIPACAO DOS LUCROS | CONTRAS: TRABALHO NAO E FLEXIVEL, TEM QUE IR PARA O ESCRITORIO TODO DIA</t>
+          <t>PROS: AMBIENTE RECEPTIVO E COLEGAS DE TRABALHO EXCELENTES, SALARIO COMPETITIVO E PROJETOS GRANDES E COMPLEXOS | CONTRAS: TRABALHO E NA MODALIDADE PRESENCIAL</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>21 de abr. de 2023</t>
+          <t>3 de out. de 2023</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS E SALARIO ALEM DO PAGAMENTO DE PARTICIPACAO DOS LUCROS</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>TRABALHO NAO E FLEXIVEL, TEM QUE IR PARA O ESCRITORIO TODO DIA</t>
+          <t>PROS: AMBIENTE RECEPTIVO E COLEGAS DE TRABALHO EXCELENTES, SALARIO COMPETITIVO E PROJETOS GRANDES E COMPLEXOS</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[-0.02923028  0.00997796 -0.02107285 ...  0.01436391 -0.03400201
-  0.07079501]</t>
-        </is>
-      </c>
-      <c r="G57" t="n">
-        <v>3</v>
+          <t>TRABALHO E NA MODALIDADE PRESENCIAL</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>[ 0.00361396  0.00332042 -0.035672   ...  0.04430081 -0.05610407
+  0.00222194]</t>
+        </is>
       </c>
       <c r="H57" t="n">
         <v>3</v>
       </c>
       <c r="I57" t="n">
-        <v>26.67576789855957</v>
+        <v>3</v>
       </c>
       <c r="J57" t="n">
-        <v>-20.00900077819824</v>
+        <v>8.892438888549805</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-20.02342796325684</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>DEV II</t>
+          <t>FRONTEND DEVELOPER</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PROS: BOA GESTAO. EMPRESA ORGANIZADA QUE POSSUI MUITO ESPACO PARA DESENVOLVIMENTO PROFISSIONAL. | CONTRAS: NAO PAGOU PL NESSE ULTIMO ANO.</t>
+          <t>PROS: SALARIO COMPATIVEL COM O MERCADO | CONTRAS: FALTA BENEFICIOS, REGIME PRESENCIAL TOTAL OU QUASE</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>13 de abr. de 2023</t>
+          <t>24 de out. de 2023</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>PROS: BOA GESTAO. EMPRESA ORGANIZADA QUE POSSUI MUITO ESPACO PARA DESENVOLVIMENTO PROFISSIONAL.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>NAO PAGOU PL NESSE ULTIMO ANO.</t>
+          <t>PROS: SALARIO COMPATIVEL COM O MERCADO</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[-0.04000289  0.0295119  -0.04015501 ...  0.01321397 -0.05911937
- -0.02533971]</t>
-        </is>
-      </c>
-      <c r="G58" t="n">
-        <v>3</v>
+          <t>FALTA BENEFICIOS, REGIME PRESENCIAL TOTAL OU QUASE</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>[ 0.00894982  0.00058856 -0.02626846 ...  0.01054131 -0.0474486
+ -0.01670653]</t>
+        </is>
       </c>
       <c r="H58" t="n">
         <v>3</v>
       </c>
       <c r="I58" t="n">
-        <v>29.05817985534668</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>9.417218208312988</v>
+        <v>3.264033794403076</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-19.45865631103516</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ASSISTENTE COMERCIAL</t>
+          <t>ANALISTA FRONT END SENIOR</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PROS: O TICKET VA E VR SAO BONS | CONTRAS: EMPRESA NAO PAGA PLR PARA FUNCIONARIOS MESMO DECLARANDO LUCRO ABSURDO PARA INVESTIDORES</t>
+          <t>PROS: APRENDIZADO DE NOVAS TECNOLOGIAS. EQUIPE DIVERSIFICADA. | CONTRAS: MODELO DE TRABALHO HIBRIDO SENDO IMPLANTADO.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>19 de mai. de 2023</t>
+          <t>2 de out. de 2023</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>PROS: O TICKET VA E VR SAO BONS</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>EMPRESA NAO PAGA PLR PARA FUNCIONARIOS MESMO DECLARANDO LUCRO ABSURDO PARA INVESTIDORES</t>
+          <t>PROS: APRENDIZADO DE NOVAS TECNOLOGIAS. EQUIPE DIVERSIFICADA.</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[-0.10175075  0.00955875 -0.01840132 ...  0.00162189 -0.05481863
- -0.00723683]</t>
-        </is>
-      </c>
-      <c r="G59" t="n">
-        <v>3</v>
+          <t>MODELO DE TRABALHO HIBRIDO SENDO IMPLANTADO.</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>[-0.03614717  0.00460614 -0.0565142  ...  0.02656751 -0.04347127
+  0.02828675]</t>
+        </is>
       </c>
       <c r="H59" t="n">
         <v>3</v>
       </c>
       <c r="I59" t="n">
-        <v>32.98105621337891</v>
+        <v>3</v>
       </c>
       <c r="J59" t="n">
-        <v>3.725523471832275</v>
+        <v>15.50999546051025</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-23.80142021179199</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ASSISTENTE DE CS</t>
+          <t>COORDENADOR DE GROWTH</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PROS: SALARIO, BENEFICIOS, AMBIENTE DE TRABALHO AGRADAVEL | CONTRAS: NAO TEM HOME OFFICE, METAS E COBRANCAS</t>
+          <t>PROS: AUTONOMIA, COLABORACAO, CLIMA E BENEFICIOS SAO OS PONTOS FORTES. | CONTRAS: MODELO DE TRABALHO 100% PRESENCIAL, RH POUCO ATUANTE (NAO HA PLANO DE CARREIRA, POR EX)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>28 de mar. de 2023</t>
+          <t>21 de ago. de 2023</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>PROS: SALARIO, BENEFICIOS, AMBIENTE DE TRABALHO AGRADAVEL</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>NAO TEM HOME OFFICE, METAS E COBRANCAS</t>
+          <t>PROS: AUTONOMIA, COLABORACAO, CLIMA E BENEFICIOS SAO OS PONTOS FORTES.</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[ 0.00328592 -0.03843007 -0.03266748 ... -0.01508216 -0.03869961
- -0.04896725]</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
-        <v>3</v>
+          <t>MODELO DE TRABALHO 100% PRESENCIAL, RH POUCO ATUANTE (NAO HA PLANO DE CARREIRA, POR EX)</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>[-0.0326104   0.00985104 -0.03945314 ...  0.02093988 -0.02085974
+ -0.01397331]</t>
+        </is>
       </c>
       <c r="H60" t="n">
         <v>3</v>
       </c>
       <c r="I60" t="n">
-        <v>36.37194442749023</v>
+        <v>3</v>
       </c>
       <c r="J60" t="n">
-        <v>-6.536264419555664</v>
+        <v>2.233338594436646</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-18.56350708007812</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ASSITENTE COMERCIAL</t>
+          <t>DESENVOLVEDOR JAVA PLENO</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS BONS, VR E VA | CONTRAS: PL MUITO BAIXA, NO ANO DE 2023 NAO TEVE</t>
+          <t>PROS: AS PESSOAS QUE TRABALHAM NO INTER SAO EXTREMAMENTE EXCELENTES, TRABALHAMOS COM TECNOLOGIA DE PONTA, PRODUTOS MUITO INTERESSANTES. | CONTRAS: EMPRESA ESTAVA EM HOMEOFFICE DESDE A PANDEMIA ATE FINAL DE 2022, QUANDO DECIDIU QUE TODOS DEVERIAM RETORNAR AO PRESENCIAL, SEM OPCAO DE ESCOLHA.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>15 de mar. de 2023</t>
+          <t>12 de dez. de 2022</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS BONS, VR E VA</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>PL MUITO BAIXA, NO ANO DE 2023 NAO TEVE</t>
+          <t>PROS: AS PESSOAS QUE TRABALHAM NO INTER SAO EXTREMAMENTE EXCELENTES, TRABALHAMOS COM TECNOLOGIA DE PONTA, PRODUTOS MUITO INTERESSANTES.</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[-0.05864005  0.00885541 -0.0203591  ...  0.05127706 -0.00580352
-  0.03666616]</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
-        <v>3</v>
+          <t>EMPRESA ESTAVA EM HOMEOFFICE DESDE A PANDEMIA ATE FINAL DE 2022, QUANDO DECIDIU QUE TODOS DEVERIAM RETORNAR AO PRESENCIAL, SEM OPCAO DE ESCOLHA.</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>[-0.031213    0.01288762  0.00157697 ...  0.02326969 -0.08787385
+  0.0111258 ]</t>
+        </is>
       </c>
       <c r="H61" t="n">
         <v>3</v>
       </c>
       <c r="I61" t="n">
-        <v>29.68735885620117</v>
+        <v>3</v>
       </c>
       <c r="J61" t="n">
-        <v>9.883221626281738</v>
+        <v>14.40125942230225</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-14.785719871521</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ANALISTA SENIOR</t>
+          <t>DEV II</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PROS: MUITA AUTONOMIA PARA TRABALHAR, FAVORECE O ESPIRITO EMPREENDEDOR. USO DE NOVAS TECNOLOGIAS. TICKET TOP. | CONTRAS: EXIGIU O RETORNO DE HOME OFFICE, PLANO DE SAUDE PODERIA SER MELHOR E SEM DESCONTO PARA DEPENDENTES.</t>
+          <t>PROS: BOM PARA DAR VISIBILIDADE NA CARREIRA E OBTER EXPERIENCIA EM VARIAS TECNOLOGIAS | CONTRAS: AGORA VOLTAMOS AO ESQUEMA PRESENCIAL</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>28 de dez. de 2022</t>
+          <t>1 de ago. de 2023</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>PROS: MUITA AUTONOMIA PARA TRABALHAR, FAVORECE O ESPIRITO EMPREENDEDOR. USO DE NOVAS TECNOLOGIAS. TICKET TOP.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>EXIGIU O RETORNO DE HOME OFFICE, PLANO DE SAUDE PODERIA SER MELHOR E SEM DESCONTO PARA DEPENDENTES.</t>
+          <t>PROS: BOM PARA DAR VISIBILIDADE NA CARREIRA E OBTER EXPERIENCIA EM VARIAS TECNOLOGIAS</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[-0.00879673  0.00944173 -0.06147199 ... -0.00978234 -0.05844964
- -0.02028901]</t>
-        </is>
-      </c>
-      <c r="G62" t="n">
-        <v>3</v>
+          <t>AGORA VOLTAMOS AO ESQUEMA PRESENCIAL</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>[-0.00431584  0.01816787 -0.04548356 ... -0.01007666 -0.03827336
+  0.00445132]</t>
+        </is>
       </c>
       <c r="H62" t="n">
         <v>3</v>
       </c>
       <c r="I62" t="n">
-        <v>18.37966728210449</v>
+        <v>3</v>
       </c>
       <c r="J62" t="n">
-        <v>-22.96661186218262</v>
+        <v>11.25930404663086</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-17.18135070800781</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TECH MANAGER</t>
+          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PROS: SALARIO ACIMA DA MEDIA E BOM PACOTE DE BENEFICIOS, BOAS POSSIBILIDADES DE CRESCIMENTO PROFISSIONAL | CONTRAS: HOME OFFICE NAO E BEM ACEITO, PROCESSOS INTERNOS BUROCRATICOS</t>
+          <t>PROS: BOM PLANO DE SAUDE E BENEFICIOS DO SETOR BANCARIO. | CONTRAS: CONTRATAM PROFISSIONAIS PARA TRABALHO HIBRIDO E TORNA 100% PRESENCIAL. ALGUMAS EQUIPES TRABALHAM PARA ATRAPALHAR AS OUTRAS AO QUE PARECE. REMOVERAM ATE O REFEITORIO (QUE JA NAO COMPORTAVA O FLUXO DE PESSOAS). ELEVADORES SEMPRE LOTADOS. BEM TRISTE TUDO QUE ESTA ACONTECENDO.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>16 de fev. de 2023</t>
+          <t>13 de mar. de 2023</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>PROS: SALARIO ACIMA DA MEDIA E BOM PACOTE DE BENEFICIOS, BOAS POSSIBILIDADES DE CRESCIMENTO PROFISSIONAL</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>HOME OFFICE NAO E BEM ACEITO, PROCESSOS INTERNOS BUROCRATICOS</t>
+          <t>PROS: BOM PLANO DE SAUDE E BENEFICIOS DO SETOR BANCARIO.</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[ 0.0014316  -0.0239454  -0.02896669 ...  0.01677835 -0.0540345
-  0.00958425]</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
-        <v>3</v>
+          <t>CONTRATAM PROFISSIONAIS PARA TRABALHO HIBRIDO E TORNA 100% PRESENCIAL. ALGUMAS EQUIPES TRABALHAM PARA ATRAPALHAR AS OUTRAS AO QUE PARECE. REMOVERAM ATE O REFEITORIO (QUE JA NAO COMPORTAVA O FLUXO DE PESSOAS). ELEVADORES SEMPRE LOTADOS. BEM TRISTE TUDO QUE ESTA ACONTECENDO.</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>[-0.01730465 -0.00278825 -0.04186657 ...  0.0088452  -0.01794557
+  0.06624416]</t>
+        </is>
       </c>
       <c r="H63" t="n">
         <v>3</v>
       </c>
       <c r="I63" t="n">
-        <v>35.66687774658203</v>
+        <v>3</v>
       </c>
       <c r="J63" t="n">
-        <v>-7.354794979095459</v>
+        <v>10.74781703948975</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-12.10797595977783</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR</t>
+          <t>SRE ENGINEER</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>PROS: EU AMO MEU EMPREGO NAO TEM OTO | CONTRAS: NAO TEM CONTRAS BANCO INTER MT TOP</t>
+          <t>PROS: AMBIENTE DESAFIADOR, SEMPRE COM POSSIBILIDADE DE DESENVOLVIMENTO | CONTRAS: 100% PRESENCIAL, PODERIA TER OPCAO DE UMA PRESENCAS HIBRIDA, HOME OFFICE E PRESENCIAL. PLANO DE CARREIRA NAO E BEM DEFINIDO.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1 de mar. de 2023</t>
+          <t>27 de jun. de 2023</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>PROS: EU AMO MEU EMPREGO NAO TEM OTO</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>NAO TEM CONTRAS BANCO INTER MT TOP</t>
+          <t>PROS: AMBIENTE DESAFIADOR, SEMPRE COM POSSIBILIDADE DE DESENVOLVIMENTO</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[ 0.0413846  -0.0075689  -0.01449978 ... -0.00096794  0.00281952
- -0.06659035]</t>
-        </is>
-      </c>
-      <c r="G64" t="n">
-        <v>3</v>
+          <t>100% PRESENCIAL, PODERIA TER OPCAO DE UMA PRESENCAS HIBRIDA, HOME OFFICE E PRESENCIAL. PLANO DE CARREIRA NAO E BEM DEFINIDO.</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>[-0.03840589  0.00696638 -0.03128608 ...  0.02097161 -0.01085034
+  0.00628851]</t>
+        </is>
       </c>
       <c r="H64" t="n">
         <v>3</v>
       </c>
       <c r="I64" t="n">
-        <v>43.73486709594727</v>
+        <v>3</v>
       </c>
       <c r="J64" t="n">
-        <v>7.964827537536621</v>
+        <v>0.8317611217498779</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-19.09402084350586</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>FRONTEND DEVELOPER</t>
+          <t>ASSISTANT MANAGER</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS, BOM SALARIO E BOA EQUIPE | CONTRAS: ACABOU O HOME OFFICE E NAO TEM MAIS GYMPASS.</t>
+          <t>PROS: OTIMO LUGAR PARA SE TRABALHAR | CONTRAS: PROBLEMA QUE E TOTALMENTE PRESENCIAL</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>6 de jan. de 2023</t>
+          <t>26 de jul. de 2023</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS, BOM SALARIO E BOA EQUIPE</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ACABOU O HOME OFFICE E NAO TEM MAIS GYMPASS.</t>
+          <t>PROS: OTIMO LUGAR PARA SE TRABALHAR</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>[-0.02440664 -0.0282784  -0.0572704  ... -0.01908379 -0.10085484
-  0.02265542]</t>
-        </is>
-      </c>
-      <c r="G65" t="n">
-        <v>3</v>
+          <t>PROBLEMA QUE E TOTALMENTE PRESENCIAL</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>[ 0.02672206  0.00530708 -0.03180679 ...  0.02217198 -0.02270452
+  0.02978247]</t>
+        </is>
       </c>
       <c r="H65" t="n">
         <v>3</v>
       </c>
       <c r="I65" t="n">
-        <v>38.91474151611328</v>
+        <v>3</v>
       </c>
       <c r="J65" t="n">
-        <v>-10.96678352355957</v>
+        <v>3.317188501358032</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-24.42657852172852</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ANALISTA DE QUALIDADE JUNIOR</t>
+          <t>ANALISTA DE SEGURANCA DA INFORMACAO SENIOR</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PROS: DECIMO DO VR-VA, NAO EXIGE O BATIMENTO DO PONTOS, OTIMOS PROFISSIONAIS. | CONTRAS: NAO ADOCAO DE TRABALHO HIBRIDO OU REMOTO OFICIALMENTE</t>
+          <t>PROS: AMBIENTE DESAFIADOR DE APRENDIZADO CONTINUO. OPORTUNIDADE DE CRESCIMENTO. | CONTRAS: MODELO DE TRABALHO PRESENCIAL. MUITAS AUDITORIAS.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>5 de dez. de 2022</t>
+          <t>15 de jul. de 2023</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>PROS: DECIMO DO VR-VA, NAO EXIGE O BATIMENTO DO PONTOS, OTIMOS PROFISSIONAIS.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>NAO ADOCAO DE TRABALHO HIBRIDO OU REMOTO OFICIALMENTE</t>
+          <t>PROS: AMBIENTE DESAFIADOR DE APRENDIZADO CONTINUO. OPORTUNIDADE DE CRESCIMENTO.</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[-0.00086796 -0.00507019 -0.02244265 ...  0.02370061 -0.04316027
-  0.03017524]</t>
-        </is>
-      </c>
-      <c r="G66" t="n">
-        <v>3</v>
+          <t>MODELO DE TRABALHO PRESENCIAL. MUITAS AUDITORIAS.</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>[-0.01980272 -0.00165229 -0.03722713 ...  0.01001335 -0.03513224
+  0.03515693]</t>
+        </is>
       </c>
       <c r="H66" t="n">
         <v>3</v>
       </c>
       <c r="I66" t="n">
-        <v>29.04237365722656</v>
+        <v>3</v>
       </c>
       <c r="J66" t="n">
-        <v>-10.63983345031738</v>
+        <v>8.713737487792969</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-22.11517524719238</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ANALISTA PLENO</t>
+          <t>ANALISTA JUNIOR</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PROS: PARA O MERCADO DE BELO HORIZONTE OS BENEFICIOS SAO BONS | CONTRAS: NAO TEM POSSIBILIDADE DE FAZER HOME OFFICE</t>
+          <t>PROS: OTIMA EMPRESA PARA TRABALHAR, SALARIOS SEMPRE EM DIA E VR E VA SAO EXCELENTES. | CONTRAS: O NAO PAGAMENTO DE PL, REFEITORIO MUITO CHEIO, NAO TEM MODELO DE TRABALHO HIBRIDO, E 100% PRESENCIAL.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1 de fev. de 2023</t>
+          <t>2 de jun. de 2023</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>PROS: PARA O MERCADO DE BELO HORIZONTE OS BENEFICIOS SAO BONS</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>NAO TEM POSSIBILIDADE DE FAZER HOME OFFICE</t>
+          <t>PROS: OTIMA EMPRESA PARA TRABALHAR, SALARIOS SEMPRE EM DIA E VR E VA SAO EXCELENTES.</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[ 0.00814594  0.01920126 -0.01103012 ... -0.01789963 -0.0515185
- -0.02179357]</t>
-        </is>
-      </c>
-      <c r="G67" t="n">
-        <v>3</v>
+          <t>O NAO PAGAMENTO DE PL, REFEITORIO MUITO CHEIO, NAO TEM MODELO DE TRABALHO HIBRIDO, E 100% PRESENCIAL.</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>[-0.0431212  -0.0147208  -0.04119771 ...  0.02314336 -0.05330416
+  0.01423836]</t>
+        </is>
       </c>
       <c r="H67" t="n">
         <v>3</v>
       </c>
       <c r="I67" t="n">
-        <v>35.17004013061523</v>
+        <v>3</v>
       </c>
       <c r="J67" t="n">
-        <v>-8.986833572387695</v>
+        <v>10.95673561096191</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-23.98830032348633</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>JAVA DEVELOPER</t>
+          <t>CIENTISTA DE DADOS SENIOR</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PROS: OTIMA EMPRESA PRA TRABALHAR, APRENDIZADO CONTINUO E CLIMA MUITO LEVE! | CONTRAS: NAO CONSIGO LISTAR NO MOMENTO</t>
+          <t>PROS: AMBIENTE AGRADAVEL E PESSOAS AMIGAVEIS | CONTRAS: ATUACAO PRESENCIAL, NAO EXISTE MAIS A POSSIBILIDADE DE TRABALHO REMOTO.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>27 de dez. de 2022</t>
+          <t>24 de mai. de 2023</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>PROS: OTIMA EMPRESA PRA TRABALHAR, APRENDIZADO CONTINUO E CLIMA MUITO LEVE!</t>
+          <t>São Paulo, SP</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>NAO CONSIGO LISTAR NO MOMENTO</t>
+          <t>PROS: AMBIENTE AGRADAVEL E PESSOAS AMIGAVEIS</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[-0.01581677  0.02633727 -0.03952486 ... -0.0057795  -0.01056034
- -0.00768751]</t>
-        </is>
-      </c>
-      <c r="G68" t="n">
-        <v>3</v>
+          <t>ATUACAO PRESENCIAL, NAO EXISTE MAIS A POSSIBILIDADE DE TRABALHO REMOTO.</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>[ 0.01247508  0.01109592 -0.02342064 ...  0.02964051 -0.05869276
+  0.00753827]</t>
+        </is>
       </c>
       <c r="H68" t="n">
         <v>3</v>
       </c>
       <c r="I68" t="n">
-        <v>42.92800521850586</v>
+        <v>3</v>
       </c>
       <c r="J68" t="n">
-        <v>3.476558446884155</v>
+        <v>13.98139762878418</v>
+      </c>
+      <c r="K68" t="n">
+        <v>-19.35243606567383</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PRODUCT ANALYST</t>
+          <t>DEV II</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PROS: CULTURA LEVE, POUCA BUROCRACIA, BENEFICIOS SAO BONS | CONTRAS: NAO E A FAVOR DO HOME OFFICE, RECONHECIMENTOS SAO MAIS DEMORADOS, FALTA DE PROCESSOS</t>
+          <t>PROS: EQUIPE MUITO BOA, RELACIONAMENTO OTIMO, SEM COBRANCAS EXCESSIVAS OU MAL ESTAR | CONTRAS: MODO PRESENCIAL PARA ALGUNS COLABORADORES</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>24 de nov. de 2022</t>
+          <t>20 de mai. de 2023</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>PROS: CULTURA LEVE, POUCA BUROCRACIA, BENEFICIOS SAO BONS</t>
+          <t>Recife, PE</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>NAO E A FAVOR DO HOME OFFICE, RECONHECIMENTOS SAO MAIS DEMORADOS, FALTA DE PROCESSOS</t>
+          <t>PROS: EQUIPE MUITO BOA, RELACIONAMENTO OTIMO, SEM COBRANCAS EXCESSIVAS OU MAL ESTAR</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[-0.01442631 -0.02609047 -0.04101552 ... -0.00191921 -0.03204586
- -0.01195349]</t>
-        </is>
-      </c>
-      <c r="G69" t="n">
-        <v>3</v>
+          <t>MODO PRESENCIAL PARA ALGUNS COLABORADORES</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>[-0.04463721 -0.01792911 -0.05522779 ...  0.01981722 -0.06385035
+ -0.02456266]</t>
+        </is>
       </c>
       <c r="H69" t="n">
         <v>3</v>
       </c>
       <c r="I69" t="n">
-        <v>34.72920989990234</v>
+        <v>3</v>
       </c>
       <c r="J69" t="n">
-        <v>-7.412314414978027</v>
+        <v>8.914098739624023</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-21.06388664245605</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>DEV I</t>
+          <t>DESENVOLVEDOR SENIOR</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PROS: VR / VA MUITO BOM | CONTRAS: ACABARAM COM O TRABALHO REMOTO PARA AS SEDES</t>
+          <t>PROS: BONS BENEFICIOS, EQUIPE SENSACIONAL, BOM SALARIO, OTIMOS MATERIAIS DE TRABALHO | CONTRAS: A MUDANCA PRO TRABALHO PRESENCIAL FOI MUITO REPENTINA, E PEGOU TODOS DE SURPRESA. SEM NENHUM PRE AVISO TODOS FORAM "CONVIDADOS" A RETORNAR AO TRABALHO PRESENCIAL.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>7 de dez. de 2022</t>
+          <t>18 de jan. de 2023</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>PROS: VR / VA MUITO BOM</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ACABARAM COM O TRABALHO REMOTO PARA AS SEDES</t>
+          <t>PROS: BONS BENEFICIOS, EQUIPE SENSACIONAL, BOM SALARIO, OTIMOS MATERIAIS DE TRABALHO</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[ 0.02481575 -0.01543426 -0.02269316 ... -0.0106864  -0.0668299
-  0.01419806]</t>
-        </is>
-      </c>
-      <c r="G70" t="n">
-        <v>3</v>
+          <t>A MUDANCA PRO TRABALHO PRESENCIAL FOI MUITO REPENTINA, E PEGOU TODOS DE SURPRESA. SEM NENHUM PRE AVISO TODOS FORAM "CONVIDADOS" A RETORNAR AO TRABALHO PRESENCIAL.</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>[ 4.2562220e-05  3.4675654e-02 -3.8956873e-02 ...  1.0962432e-02
+ -5.4139994e-02  2.2035753e-02]</t>
+        </is>
       </c>
       <c r="H70" t="n">
         <v>3</v>
       </c>
       <c r="I70" t="n">
-        <v>37.64115142822266</v>
+        <v>3</v>
       </c>
       <c r="J70" t="n">
-        <v>-12.44029808044434</v>
+        <v>9.046783447265625</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-13.19288730621338</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ESPECIALISTA FINANCEIRO</t>
+          <t>ANALISTA JUNIOR I</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE LEVE, DESCONTRAIDO, INCLUSIVO E CHEIO DE GENTE JOVEM | CONTRAS: CALCULO DE PLR NAO E TRANSPARENTE E O VALE REFEICAO E SODEXO, APESAR DE SER UM VALOR ALTO</t>
+          <t>PROS: AMBIENTE LEGAL, BONS PROFISSIONAIS, BONS EQUIPAMENTOS, LIBERDADE, OPINIOES SAO OUVIDAS E DISCUTIDAS.BENEFICIOS E SALARIOS MUITO BONS | CONTRAS: VOLTA 100% DO PRESENCIAL, SEM AVISO PREVIO. NAO TEM UM PLANO DE CARREIRA MUITO BEM DEFINIDO.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>10 de nov. de 2022</t>
+          <t>20 de jan. de 2023</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE LEVE, DESCONTRAIDO, INCLUSIVO E CHEIO DE GENTE JOVEM</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>CALCULO DE PLR NAO E TRANSPARENTE E O VALE REFEICAO E SODEXO, APESAR DE SER UM VALOR ALTO</t>
+          <t>PROS: AMBIENTE LEGAL, BONS PROFISSIONAIS, BONS EQUIPAMENTOS, LIBERDADE, OPINIOES SAO OUVIDAS E DISCUTIDAS.BENEFICIOS E SALARIOS MUITO BONS</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[-0.04293644  0.02435727 -0.03085828 ...  0.00043587 -0.02287444
-  0.02709534]</t>
-        </is>
-      </c>
-      <c r="G71" t="n">
-        <v>3</v>
+          <t>VOLTA 100% DO PRESENCIAL, SEM AVISO PREVIO. NAO TEM UM PLANO DE CARREIRA MUITO BEM DEFINIDO.</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>[-0.02572753  0.00813708 -0.03671625 ... -0.00742444 -0.01693461
+  0.02700856]</t>
+        </is>
       </c>
       <c r="H71" t="n">
         <v>3</v>
       </c>
       <c r="I71" t="n">
-        <v>23.74817276000977</v>
+        <v>3</v>
       </c>
       <c r="J71" t="n">
-        <v>10.48229694366455</v>
+        <v>1.549033045768738</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-16.7927131652832</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ANALISTA DE CREDITO IMOBILIARIO</t>
+          <t>ANALISTA JUNIOR</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PROS: A EMPRESA NAO VALORIZA OS FUNCIONARIOS. | CONTRAS: NAO TEM PLR E NEM HOME OFFICE.</t>
+          <t>PROS: TIME MUITO LEGAL, APRENDIZADO CONTINUO | CONTRAS: PRESENCA 100% PRESENCIAL, MENOS FLEXIBILIDADE</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1 de mar. de 2023</t>
+          <t>4 de mai. de 2023</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>PROS: A EMPRESA NAO VALORIZA OS FUNCIONARIOS.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>NAO TEM PLR E NEM HOME OFFICE.</t>
+          <t>PROS: TIME MUITO LEGAL, APRENDIZADO CONTINUO</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[-0.03124204 -0.01764332 -0.04039847 ... -0.01542864 -0.06484765
- -0.0351506 ]</t>
-        </is>
-      </c>
-      <c r="G72" t="n">
-        <v>3</v>
+          <t>PRESENCA 100% PRESENCIAL, MENOS FLEXIBILIDADE</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>[-0.01219322 -0.03488651 -0.04655115 ...  0.0257562  -0.05618111
+  0.02621965]</t>
+        </is>
       </c>
       <c r="H72" t="n">
         <v>3</v>
       </c>
       <c r="I72" t="n">
-        <v>36.11016082763672</v>
+        <v>3</v>
       </c>
       <c r="J72" t="n">
-        <v>-8.147051811218262</v>
+        <v>5.067163467407227</v>
+      </c>
+      <c r="K72" t="n">
+        <v>-23.37942695617676</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>GERENTE COMERCIAL</t>
+          <t>TECH ANALYST</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA BOA PARA SE TRABALHAR | CONTRAS: EMPRESA OK PARA SE TRABALHAR</t>
+          <t>PROS: TE DAO LIBERDADE. AMBIENTE DESCONTRAIDO. | CONTRAS: PRESENCIAL SEM NECESSIDADE. MODELO ENGESSADO DE NEGOCIO. MUITOS GERENTES. RECONHECIMENTO TARDIO.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>19 de dez. de 2022</t>
+          <t>11 de abr. de 2023</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA BOA PARA SE TRABALHAR</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>EMPRESA OK PARA SE TRABALHAR</t>
+          <t>PROS: TE DAO LIBERDADE. AMBIENTE DESCONTRAIDO.</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[-0.01972039  0.0345495  -0.03758365 ...  0.02006565 -0.04694776
-  0.0013603 ]</t>
-        </is>
-      </c>
-      <c r="G73" t="n">
-        <v>3</v>
+          <t>PRESENCIAL SEM NECESSIDADE. MODELO ENGESSADO DE NEGOCIO. MUITOS GERENTES. RECONHECIMENTO TARDIO.</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>[-0.02352026  0.01756066 -0.00937907 ...  0.00833497 -0.02995738
+ -0.00812793]</t>
+        </is>
       </c>
       <c r="H73" t="n">
         <v>3</v>
       </c>
       <c r="I73" t="n">
-        <v>59.44406890869141</v>
+        <v>3</v>
       </c>
       <c r="J73" t="n">
-        <v>-4.547505378723145</v>
+        <v>6.716462135314941</v>
+      </c>
+      <c r="K73" t="n">
+        <v>-9.885961532592773</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ASSISTENTE</t>
+          <t>TECH MANAGER</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>PROS: AREA DE TRABALHO MUITO BOA | CONTRAS: PAGA MAL, NAO TEM MUITO BENEFICIOS</t>
+          <t>PROS: EXCELENTE AMBIENTE DE TRABALHO, COM AUTONOMIA E CONFIANCA. | CONTRAS: TRABALHO 100% PRESENCIAL NOS ESCRITORIOS DE BH E RECIFE.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>21 de nov. de 2022</t>
+          <t>12 de fev. de 2023</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>PROS: AREA DE TRABALHO MUITO BOA</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>PAGA MAL, NAO TEM MUITO BENEFICIOS</t>
+          <t>PROS: EXCELENTE AMBIENTE DE TRABALHO, COM AUTONOMIA E CONFIANCA.</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[-0.00690719 -0.00025104 -0.04577046 ... -0.0130286  -0.04900328
- -0.01957615]</t>
-        </is>
-      </c>
-      <c r="G74" t="n">
-        <v>3</v>
+          <t>TRABALHO 100% PRESENCIAL NOS ESCRITORIOS DE BH E RECIFE.</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>[-0.02146049  0.00858761 -0.00569897 ...  0.01418469 -0.01526345
+  0.03966178]</t>
+        </is>
       </c>
       <c r="H74" t="n">
         <v>3</v>
       </c>
       <c r="I74" t="n">
-        <v>35.00094985961914</v>
+        <v>3</v>
       </c>
       <c r="J74" t="n">
-        <v>5.640504837036133</v>
+        <v>8.277262687683105</v>
+      </c>
+      <c r="K74" t="n">
+        <v>-26.46413040161133</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
+          <t>ESTAGIARIO</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PROS: OTIMA EMPRESA. LIBERDADE. EXCELENTE AMBIENTE DE TRABALHO. | CONTRAS: PL BAIXO. NAO TEM GYMPASS. AINDA USA SODEXO.</t>
+          <t>PROS: OTIMA ESTRUTURA, POSSIBILIDADE DE CRESCIMENTO | CONTRAS: TRABALHO CEM POR CENTO PRESENCIAL</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>26 de out. de 2022</t>
+          <t>5 de abr. de 2023</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>PROS: OTIMA EMPRESA. LIBERDADE. EXCELENTE AMBIENTE DE TRABALHO.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>PL BAIXO. NAO TEM GYMPASS. AINDA USA SODEXO.</t>
+          <t>PROS: OTIMA ESTRUTURA, POSSIBILIDADE DE CRESCIMENTO</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[-0.0385134  -0.01495344 -0.06140216 ... -0.04411128 -0.02058514
- -0.01332103]</t>
-        </is>
-      </c>
-      <c r="G75" t="n">
-        <v>3</v>
+          <t>TRABALHO CEM POR CENTO PRESENCIAL</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>[ 0.00547284 -0.00328203 -0.03143762 ... -0.00399434 -0.04723526
+  0.02029747]</t>
+        </is>
       </c>
       <c r="H75" t="n">
         <v>3</v>
       </c>
       <c r="I75" t="n">
-        <v>41.63677597045898</v>
+        <v>3</v>
       </c>
       <c r="J75" t="n">
-        <v>-7.616696834564209</v>
+        <v>6.576385974884033</v>
+      </c>
+      <c r="K75" t="n">
+        <v>-23.85209465026855</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR</t>
+          <t>COORDENADOR</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA POSSUI ALTA CAPACIDADE TECNICA | CONTRAS: EMPRESA E CONTRA O HOME OFFICE</t>
+          <t>PROS: CLIMA EXCELENTE, OTIMO VA E VR | CONTRAS: 100% PRESENCIAL, SEM PL, SALARIO ABAIXO DO MERCADO, EMPRESA FAMILIAR</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>14 de dez. de 2022</t>
+          <t>15 de fev. de 2023</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA POSSUI ALTA CAPACIDADE TECNICA</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>EMPRESA E CONTRA O HOME OFFICE</t>
+          <t>PROS: CLIMA EXCELENTE, OTIMO VA E VR</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[-0.00779152  0.00138982 -0.02820475 ...  0.00566307 -0.06983744
-  0.01581256]</t>
-        </is>
-      </c>
-      <c r="G76" t="n">
-        <v>3</v>
+          <t>100% PRESENCIAL, SEM PL, SALARIO ABAIXO DO MERCADO, EMPRESA FAMILIAR</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>[-0.06371853 -0.02129246 -0.03811525 ...  0.04773193 -0.05053665
+ -0.0134103 ]</t>
+        </is>
       </c>
       <c r="H76" t="n">
         <v>3</v>
       </c>
       <c r="I76" t="n">
-        <v>37.51849365234375</v>
+        <v>3</v>
       </c>
       <c r="J76" t="n">
-        <v>-14.81946182250977</v>
+        <v>3.818008422851562</v>
+      </c>
+      <c r="K76" t="n">
+        <v>-22.02038764953613</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
+          <t>ASSISTENTE</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PROS: OTIMA EMPRESA PRA SE TRABALHAR, VALORIZAM O FUNCIONARIO, AMBIENTE AGRADAVEL, DINAMICO, RICO E DIVERSO. | CONTRAS: NENHUM QUE EU POSSA LEVANTAR.</t>
+          <t>PROS: -VALE REFEICAO - VALE ALIMENTACAO | CONTRAS: - MODELO 100% PRESENCIAL - PLANO DE CARREIRA FALHO</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>30 de abr. de 2022</t>
+          <t>7 de mar. de 2023</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>PROS: OTIMA EMPRESA PRA SE TRABALHAR, VALORIZAM O FUNCIONARIO, AMBIENTE AGRADAVEL, DINAMICO, RICO E DIVERSO.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>NENHUM QUE EU POSSA LEVANTAR.</t>
+          <t>PROS: -VALE REFEICAO - VALE ALIMENTACAO</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[ 0.01875886  0.04641286 -0.01764626 ... -0.02898035 -0.00134882
-  0.03050653]</t>
-        </is>
-      </c>
-      <c r="G77" t="n">
-        <v>3</v>
+          <t>- MODELO 100% PRESENCIAL - PLANO DE CARREIRA FALHO</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>[-0.02167314 -0.01840448 -0.0131838  ...  0.0065007  -0.01866823
+  0.01533075]</t>
+        </is>
       </c>
       <c r="H77" t="n">
         <v>3</v>
       </c>
       <c r="I77" t="n">
-        <v>47.93260192871094</v>
+        <v>3</v>
       </c>
       <c r="J77" t="n">
-        <v>-2.353311538696289</v>
+        <v>1.429222345352173</v>
+      </c>
+      <c r="K77" t="n">
+        <v>-18.39315605163574</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR FRONT END</t>
+          <t>PRODUCT ANALYST II</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA MARAVILHOSA, SUPER ORGANIZADA, PREOCUPADOS COM BEM ESTAR DIA FUNCIONARIOS. OTIMO LOCAL PARA TRABALHAR. | CONTRAS: AINDA N TEM UM SISTEMA DE HOMEOFFICE POS-PANDEMIA, MAIS ESTA EM AVALIACAO.</t>
+          <t>PROS: SALARIO, BENEFICIOS E RECONHECIMENTO DOS FUNCIONARIOS | CONTRAS: MODALIDADE DE TRABALHO PRESENCIAL, CONTRA O FLUXO DO MERCADO DE TI</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2 de ago. de 2021</t>
+          <t>1 de fev. de 2023</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA MARAVILHOSA, SUPER ORGANIZADA, PREOCUPADOS COM BEM ESTAR DIA FUNCIONARIOS. OTIMO LOCAL PARA TRABALHAR.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>AINDA N TEM UM SISTEMA DE HOMEOFFICE POS-PANDEMIA, MAIS ESTA EM AVALIACAO.</t>
+          <t>PROS: SALARIO, BENEFICIOS E RECONHECIMENTO DOS FUNCIONARIOS</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[-0.04158296  0.01349779 -0.05154336 ... -0.00363456 -0.05948676
-  0.01877222]</t>
-        </is>
-      </c>
-      <c r="G78" t="n">
-        <v>3</v>
+          <t>MODALIDADE DE TRABALHO PRESENCIAL, CONTRA O FLUXO DO MERCADO DE TI</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>[-0.04137472 -0.01715182 -0.02375365 ...  0.02342626 -0.02254412
+ -0.00943949]</t>
+        </is>
       </c>
       <c r="H78" t="n">
         <v>3</v>
       </c>
       <c r="I78" t="n">
-        <v>32.50282669067383</v>
+        <v>3</v>
       </c>
       <c r="J78" t="n">
-        <v>-10.11553478240967</v>
+        <v>10.2767915725708</v>
+      </c>
+      <c r="K78" t="n">
+        <v>-19.89696502685547</v>
       </c>
     </row>
     <row r="79">
@@ -3992,1714 +4404,496 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PROS: OTIMOS BENEFICIOS E OPORTUNIDADES DE CRESCIMENTO. | CONTRAS: NADA ATE O MOMENTO, MAS ACREDITO QUE ISSO VAI VARIAR DE ACORDO COM O GESTOR. O MEU E MARAVILHOSO!</t>
+          <t>PROS: EQUIPE MUITO BOA O QUE FAZ O TRABALHO SER MAIS PRODUTIVO | CONTRAS: PRESENCIAL FORCADO DE UMA HORA PARA A OUTRA, ATRASOS NAS PROMOCOES</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>26 de jul. de 2022</t>
+          <t>13 de jan. de 2023</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>PROS: OTIMOS BENEFICIOS E OPORTUNIDADES DE CRESCIMENTO.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>NADA ATE O MOMENTO, MAS ACREDITO QUE ISSO VAI VARIAR DE ACORDO COM O GESTOR. O MEU E MARAVILHOSO!</t>
+          <t>PROS: EQUIPE MUITO BOA O QUE FAZ O TRABALHO SER MAIS PRODUTIVO</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[-0.02924372  0.01431197 -0.0128308  ... -0.02189871 -0.04672961
- -0.00537636]</t>
-        </is>
-      </c>
-      <c r="G79" t="n">
-        <v>3</v>
+          <t>PRESENCIAL FORCADO DE UMA HORA PARA A OUTRA, ATRASOS NAS PROMOCOES</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>[ 0.02042002 -0.01385194 -0.01056426 ... -0.01452612 -0.03035928
+  0.00743763]</t>
+        </is>
       </c>
       <c r="H79" t="n">
         <v>3</v>
       </c>
       <c r="I79" t="n">
-        <v>45.21183013916016</v>
+        <v>3</v>
       </c>
       <c r="J79" t="n">
-        <v>-0.2786792814731598</v>
+        <v>1.976078391075134</v>
+      </c>
+      <c r="K79" t="n">
+        <v>-23.35293006896973</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ANALISTA DE CONTEUDO PLENO</t>
+          <t>DESENVOLVEDOR SENIOR</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS INTERESSANTES, COMO VALE-ALIMENTACAO E VALE-REFEICAO. | CONTRAS: EMPRESA NAO ADERIU AO MODELO HIBRIDO OU REMOTO.</t>
+          <t>PROS: AMBIENTE TRANQUILO DE TRABALHAR, FLEXIBILIDADE NOS HORARIOS, BOM SALARIO E EXCELENTES BENEFICIOS. | CONTRAS: EMPRESA OBRIGANDO OS FUNCIONARIOS A VOLTAR PARA O TRABALHO PRESENCIAL, MESMO O HOME OFFICE TENDO SE MOSTRADO EFICIENTE.</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>31 de mar. de 2022</t>
+          <t>29 de nov. de 2022</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS INTERESSANTES, COMO VALE-ALIMENTACAO E VALE-REFEICAO.</t>
+          <t>Recife, PE</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>EMPRESA NAO ADERIU AO MODELO HIBRIDO OU REMOTO.</t>
+          <t>PROS: AMBIENTE TRANQUILO DE TRABALHAR, FLEXIBILIDADE NOS HORARIOS, BOM SALARIO E EXCELENTES BENEFICIOS.</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[-0.02804429 -0.01289136 -0.02197671 ...  0.03287745 -0.05620091
-  0.0403828 ]</t>
-        </is>
-      </c>
-      <c r="G80" t="n">
-        <v>3</v>
+          <t>EMPRESA OBRIGANDO OS FUNCIONARIOS A VOLTAR PARA O TRABALHO PRESENCIAL, MESMO O HOME OFFICE TENDO SE MOSTRADO EFICIENTE.</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>[-0.02765662  0.03541273 -0.04791667 ...  0.03039935 -0.04975749
+  0.01035498]</t>
+        </is>
       </c>
       <c r="H80" t="n">
         <v>3</v>
       </c>
       <c r="I80" t="n">
-        <v>29.17852973937988</v>
+        <v>3</v>
       </c>
       <c r="J80" t="n">
-        <v>-10.0780029296875</v>
+        <v>13.33349895477295</v>
+      </c>
+      <c r="K80" t="n">
+        <v>-13.65841102600098</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ASSISTENTE COMERCIAL</t>
+          <t>DESENVOLVEDOR SENIOR</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PROS: 6H DE SEGUNDA A SEXTA E TRANQUILO | CONTRAS: A COMISSAO E CONGELADA MESMO QUE ULTRAPASSE A META, NADA MUDA</t>
+          <t>PROS: - BENEFICIOS - BOM SALARIO - STACK | CONTRAS: - TRABALHO 100% PRESENCIAL - PLANO DE CARREIRA NAO E CLARO</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>22 de out. de 2021</t>
+          <t>27 de dez. de 2022</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>PROS: 6H DE SEGUNDA A SEXTA E TRANQUILO</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>A COMISSAO E CONGELADA MESMO QUE ULTRAPASSE A META, NADA MUDA</t>
+          <t>PROS: - BENEFICIOS - BOM SALARIO - STACK</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[-0.00653909 -0.01347589 -0.05475219 ... -0.01618357 -0.00552893
-  0.05994546]</t>
-        </is>
-      </c>
-      <c r="G81" t="n">
-        <v>3</v>
+          <t>- TRABALHO 100% PRESENCIAL - PLANO DE CARREIRA NAO E CLARO</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>[-0.01289721 -0.00198538 -0.03400381 ...  0.02002389  0.00223851
+ -0.01363144]</t>
+        </is>
       </c>
       <c r="H81" t="n">
         <v>3</v>
       </c>
       <c r="I81" t="n">
-        <v>46.51672744750977</v>
+        <v>3</v>
       </c>
       <c r="J81" t="n">
-        <v>13.68918418884277</v>
+        <v>1.182211399078369</v>
+      </c>
+      <c r="K81" t="n">
+        <v>-18.8084831237793</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ANALISTA JUNIOR</t>
+          <t>DESENVOLVEDOR JUNIOR</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PROS: OTIMA EMPRESA, CRESCIMENTO PROFISSIONAL E MUITO INCENTIVO AO ESTUDO. | CONTRAS: AINDA NAO VI NENHUM PRO NA EMPRESA, SEMPRE FUI MUITO SANGUE LARANJA.</t>
+          <t>PROS: EMPRESA MUITO BACANA, APRENDE MUITO, TECNOLOGIAS DO MERCADO, EQUIPES BACANAS | CONTRAS: OBRIGAM VOCE A IR PRESENCIAL, MESMO COM PANDEMIA</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>16 de abr. de 2022</t>
+          <t>16 de jan. de 2023</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>PROS: OTIMA EMPRESA, CRESCIMENTO PROFISSIONAL E MUITO INCENTIVO AO ESTUDO.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>AINDA NAO VI NENHUM PRO NA EMPRESA, SEMPRE FUI MUITO SANGUE LARANJA.</t>
+          <t>PROS: EMPRESA MUITO BACANA, APRENDE MUITO, TECNOLOGIAS DO MERCADO, EQUIPES BACANAS</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[-0.05291146 -0.00157024 -0.04886984 ...  0.03070262 -0.02506903
-  0.07629614]</t>
-        </is>
-      </c>
-      <c r="G82" t="n">
-        <v>3</v>
+          <t>OBRIGAM VOCE A IR PRESENCIAL, MESMO COM PANDEMIA</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>[ 0.01715305  0.03158771 -0.01339981 ...  0.01801623 -0.03493379
+ -0.00524589]</t>
+        </is>
       </c>
       <c r="H82" t="n">
         <v>3</v>
       </c>
       <c r="I82" t="n">
-        <v>61.67247009277344</v>
+        <v>3</v>
       </c>
       <c r="J82" t="n">
-        <v>-0.431005984544754</v>
+        <v>12.97172451019287</v>
+      </c>
+      <c r="K82" t="n">
+        <v>-16.95500564575195</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SQUAD LEADER</t>
+          <t>DESENVOLVEDOR MASTER</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PROS: OTIMO LUGAR PARA TRABALHAR E PARA CRESCER PROFISSIONALMENTE | CONTRAS: NADA RUIM A EMPRESA TEM PLANO DE CARREIRA E SALARIO COMPETITIVO</t>
+          <t>PROS: TIMES MUITO BONS DE TRABALHAR | CONTRAS: FOMOS OBRIGADO A VOLTAR PARA O PRESENCIAL</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1 de abr. de 2021</t>
+          <t>3 de fev. de 2023</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>PROS: OTIMO LUGAR PARA TRABALHAR E PARA CRESCER PROFISSIONALMENTE</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>NADA RUIM A EMPRESA TEM PLANO DE CARREIRA E SALARIO COMPETITIVO</t>
+          <t>PROS: TIMES MUITO BONS DE TRABALHAR</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[-0.061694   -0.0161477  -0.04479445 ...  0.0248313  -0.02683268
- -0.02903773]</t>
-        </is>
-      </c>
-      <c r="G83" t="n">
-        <v>3</v>
+          <t>FOMOS OBRIGADO A VOLTAR PARA O PRESENCIAL</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>[ 0.01237566  0.02526124 -0.0216654  ... -0.0212113  -0.05070523
+  0.01640672]</t>
+        </is>
       </c>
       <c r="H83" t="n">
         <v>3</v>
       </c>
       <c r="I83" t="n">
-        <v>62.04452896118164</v>
+        <v>3</v>
       </c>
       <c r="J83" t="n">
-        <v>6.103249073028564</v>
+        <v>12.13111877441406</v>
+      </c>
+      <c r="K83" t="n">
+        <v>-16.92458724975586</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ANALISTA PLENO</t>
+          <t>DESENVOLVEDOR JAVA PLENO</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>PROS: CRESCIMENTO EXPONENCIAL DA EMPRESA, COM MUITAS LINHAS DE NEGOCIO. | CONTRAS: NAO HA EM RELACAO AO BENCH</t>
+          <t>PROS: BOA REMUNERACAO BONS BENEFICIOS OTIMOS LIDERES/COODENADORES TECNOLOGIAS ATUAIS GRANDE CHANCE DE APRENDIZADO E CRESCIMENTO | CONTRAS: EM TRANSICAO PARA TRABALHO PRESENCIAL</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>26 de jul. de 2021</t>
+          <t>19 de dez. de 2022</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>PROS: CRESCIMENTO EXPONENCIAL DA EMPRESA, COM MUITAS LINHAS DE NEGOCIO.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>NAO HA EM RELACAO AO BENCH</t>
+          <t>PROS: BOA REMUNERACAO BONS BENEFICIOS OTIMOS LIDERES/COODENADORES TECNOLOGIAS ATUAIS GRANDE CHANCE DE APRENDIZADO E CRESCIMENTO</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>[-0.00887678 -0.01777914 -0.06009673 ...  0.00301609 -0.02026625
-  0.01121857]</t>
-        </is>
-      </c>
-      <c r="G84" t="n">
-        <v>3</v>
+          <t>EM TRANSICAO PARA TRABALHO PRESENCIAL</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>[-0.00082565  0.01328453 -0.04484891 ... -0.01026533 -0.05968096
+ -0.00465793]</t>
+        </is>
       </c>
       <c r="H84" t="n">
         <v>3</v>
       </c>
       <c r="I84" t="n">
-        <v>42.46207427978516</v>
+        <v>3</v>
       </c>
       <c r="J84" t="n">
-        <v>1.047910690307617</v>
+        <v>9.21532154083252</v>
+      </c>
+      <c r="K84" t="n">
+        <v>-19.20237159729004</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>DEV ESPECIALISTA</t>
+          <t>ANALISTA PLENO</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>PROS: MUITO TRANSPARENTE. RECONHECIMENTO PELO TRABALHO. BONS BENEFICIOS. | CONTRAS: AINDA SEM PONTOS CONTRA A COMENTAR</t>
+          <t>PROS: CULTURA SUPER TRANQUILA E TECNOLOGIA INOVADORAS PARA SE TRABALHAR. | CONTRAS: ESTA VOLTANDO COM O PRESENCIAL E A PARTICIPACAO NOS LUCROS ESTA VINDO BAIXA.</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>21 de jan. de 2022</t>
+          <t>3 de jan. de 2023</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>PROS: MUITO TRANSPARENTE. RECONHECIMENTO PELO TRABALHO. BONS BENEFICIOS.</t>
+          <t>Recife, PE</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>AINDA SEM PONTOS CONTRA A COMENTAR</t>
+          <t>PROS: CULTURA SUPER TRANQUILA E TECNOLOGIA INOVADORAS PARA SE TRABALHAR.</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>[ 0.01196305  0.00474945 -0.01662948 ... -0.01685798 -0.04159058
-  0.03777655]</t>
-        </is>
-      </c>
-      <c r="G85" t="n">
-        <v>3</v>
+          <t>ESTA VOLTANDO COM O PRESENCIAL E A PARTICIPACAO NOS LUCROS ESTA VINDO BAIXA.</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>[-0.05091276  0.00472459 -0.01887552 ... -0.00660543 -0.04158054
+  0.04279704]</t>
+        </is>
       </c>
       <c r="H85" t="n">
         <v>3</v>
       </c>
       <c r="I85" t="n">
-        <v>47.39706420898438</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>13.03578853607178</v>
+        <v>10.51729774475098</v>
+      </c>
+      <c r="K85" t="n">
+        <v>-15.65615844726562</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ANALISTA WEB JUNIOR</t>
+          <t>DESENVOLVEDOR SALESFORCE</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PROS: O SALARIO E MUITO BOM
-BENEFICIOS SAO BONS TAMBEM | CONTRAS: PLR NEM SEMPRE E RAZOAVEL
-DEPENDENDO DA AREA ONDE ESTIVER, O PDI NAO EXISTEE</t>
+          <t>PROS: EQUIPE MUITO UNIDA, TIME SE AJUDA MUITO. BOAS LIDERANCAS | CONTRAS: VOLTA AO FORMATO DE TRABALHO PRESENCIAL.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>3 de out. de 2022</t>
+          <t>6 de dez. de 2022</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>PROS: O SALARIO E MUITO BOM
-BENEFICIOS SAO BONS TAMBEM</t>
+          <t>Divinópolis, MG</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>PLR NEM SEMPRE E RAZOAVEL
-DEPENDENDO DA AREA ONDE ESTIVER, O PDI NAO EXISTEE</t>
+          <t>PROS: EQUIPE MUITO UNIDA, TIME SE AJUDA MUITO. BOAS LIDERANCAS</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>[-0.0553744  -0.02031647  0.00542675 ... -0.00338272 -0.00580187
-  0.00838128]</t>
-        </is>
-      </c>
-      <c r="G86" t="n">
-        <v>3</v>
+          <t>VOLTA AO FORMATO DE TRABALHO PRESENCIAL.</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>[-0.01133411  0.0158622  -0.03747415 ... -0.00860911 -0.06515785
+  0.03789773]</t>
+        </is>
       </c>
       <c r="H86" t="n">
         <v>3</v>
       </c>
       <c r="I86" t="n">
-        <v>23.96503639221191</v>
+        <v>3</v>
       </c>
       <c r="J86" t="n">
-        <v>8.852502822875977</v>
+        <v>10.99098873138428</v>
+      </c>
+      <c r="K86" t="n">
+        <v>-16.9663143157959</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
+          <t>MACHINE LEARNING ENGINEER</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE BOM DE TRABALHAR, BONS BENEFICIOS, BOM PLANO DE SAUDE E VS E VR | CONTRAS: TEM HOME OFFICE PARA APENAS ALGUMAS AREAS</t>
+          <t>PROS: SALARIO E VA + VR | CONTRAS: PRESENCIAL, CAFETERIA MUITA MAIS CARA QUE DEVERIA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>3 de mar. de 2022</t>
+          <t>9 de jan. de 2023</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE BOM DE TRABALHAR, BONS BENEFICIOS, BOM PLANO DE SAUDE E VS E VR</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>TEM HOME OFFICE PARA APENAS ALGUMAS AREAS</t>
+          <t>PROS: SALARIO E VA + VR</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>[ 0.01873692 -0.00688827 -0.03732348 ... -0.0265513  -0.04326579
- -0.01364859]</t>
-        </is>
-      </c>
-      <c r="G87" t="n">
-        <v>3</v>
+          <t>PRESENCIAL, CAFETERIA MUITA MAIS CARA QUE DEVERIA</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>[-0.00614928 -0.01113769 -0.01551877 ...  0.02746222 -0.04002742
+  0.07076503]</t>
+        </is>
       </c>
       <c r="H87" t="n">
         <v>3</v>
       </c>
       <c r="I87" t="n">
-        <v>34.85352325439453</v>
+        <v>3</v>
       </c>
       <c r="J87" t="n">
-        <v>-12.17488288879395</v>
+        <v>-1.086246013641357</v>
+      </c>
+      <c r="K87" t="n">
+        <v>-21.97872924804688</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>DEV SPECIALIST</t>
+          <t>DESENVOLVEDOR SENIOR</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>PROS: LOCALIZACAO DO RSCRITORIO, QUALIDADE DO ESCRITORIO, TIME SENSACIONAL | CONTRAS: NENHUM, POR ENQUANTO, DESDE QUE ESTOU AQUI</t>
+          <t>PROS: BENEFICIOS, PARTICIPACAO DE LUCROS E REMUNERACAO | CONTRAS: TRABALHO PRESENCIAL E ALGUMAS COISAS SEM UM AVISO.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>22 de jun. de 2022</t>
+          <t>11 de dez. de 2022</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>PROS: LOCALIZACAO DO RSCRITORIO, QUALIDADE DO ESCRITORIO, TIME SENSACIONAL</t>
+          <t>Recife, PE</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>NENHUM, POR ENQUANTO, DESDE QUE ESTOU AQUI</t>
+          <t>PROS: BENEFICIOS, PARTICIPACAO DE LUCROS E REMUNERACAO</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>[ 0.0043354   0.03320887 -0.01637933 ... -0.03438855 -0.02186291
- -0.00417055]</t>
-        </is>
-      </c>
-      <c r="G88" t="n">
-        <v>3</v>
+          <t>TRABALHO PRESENCIAL E ALGUMAS COISAS SEM UM AVISO.</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>[-0.00399277  0.02843204 -0.04088201 ... -0.00011789 -0.02702275
+ -0.02677025]</t>
+        </is>
       </c>
       <c r="H88" t="n">
         <v>3</v>
       </c>
       <c r="I88" t="n">
-        <v>46.57297515869141</v>
+        <v>3</v>
       </c>
       <c r="J88" t="n">
-        <v>-2.274178504943848</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>ANALISTA DE AUTOMACAO</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>PROS: BOM AMBIENTE, COM PROJETOS DESAFIADORES, EMPRESA EM CONSTANTE EVOLUCAO | CONTRAS: RESISTENCIA A ADESAO DE HOME OFFICE</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>6 de mai. de 2021</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>PROS: BOM AMBIENTE, COM PROJETOS DESAFIADORES, EMPRESA EM CONSTANTE EVOLUCAO</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>RESISTENCIA A ADESAO DE HOME OFFICE</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>[ 0.02352476  0.00298274 -0.02973961 ... -0.01641248 -0.09757089
-  0.04234512]</t>
-        </is>
-      </c>
-      <c r="G89" t="n">
-        <v>3</v>
-      </c>
-      <c r="H89" t="n">
-        <v>3</v>
-      </c>
-      <c r="I89" t="n">
-        <v>37.49258804321289</v>
-      </c>
-      <c r="J89" t="n">
-        <v>-14.83369827270508</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>ANALISTA DE PRODUTOS BANCARIOS</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>PROS: BENEFICOS DE BANCO EM GERAL | CONTRAS: VAGA VENDIDA COMO ANALISTA MAS NAO PASSA DE TELEMARKETING</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>13 de abr. de 2022</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>PROS: BENEFICOS DE BANCO EM GERAL</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>VAGA VENDIDA COMO ANALISTA MAS NAO PASSA DE TELEMARKETING</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>[-0.0574858  -0.0171447  -0.06703659 ... -0.0312165   0.00556945
-  0.03697044]</t>
-        </is>
-      </c>
-      <c r="G90" t="n">
-        <v>3</v>
-      </c>
-      <c r="H90" t="n">
-        <v>3</v>
-      </c>
-      <c r="I90" t="n">
-        <v>-20.64315605163574</v>
-      </c>
-      <c r="J90" t="n">
-        <v>20.91923141479492</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>GERENTE EXECUTIVO</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>PROS: AMBIENTE DE TRABALHO E ROTINA MUITO AGRADAVEIS | CONTRAS: NAO EXISTENCIA DE BONIFICACAO POR RESULTADO</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>26 de nov. de 2020</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>PROS: AMBIENTE DE TRABALHO E ROTINA MUITO AGRADAVEIS</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>NAO EXISTENCIA DE BONIFICACAO POR RESULTADO</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>[-0.03158334 -0.02123163 -0.0281296  ... -0.00710163 -0.035162
-  0.00765657]</t>
-        </is>
-      </c>
-      <c r="G91" t="n">
-        <v>3</v>
-      </c>
-      <c r="H91" t="n">
-        <v>3</v>
-      </c>
-      <c r="I91" t="n">
-        <v>30.93917274475098</v>
-      </c>
-      <c r="J91" t="n">
-        <v>8.324853897094727</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>ASSISTENTE</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>PROS: EXCELENTE LOCAL PARA TRABALHO. BANCO VEM CRESCENDO MUITO. | CONTRAS: ATUALMENTE NAO ESTA PRATICANDO HOME OFFICE EM TODAS AS AREAS.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>24 de jan. de 2021</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>PROS: EXCELENTE LOCAL PARA TRABALHO. BANCO VEM CRESCENDO MUITO.</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>ATUALMENTE NAO ESTA PRATICANDO HOME OFFICE EM TODAS AS AREAS.</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>[-0.01798563  0.01483086 -0.03935165 ... -0.00319574 -0.05062837
-  0.00664411]</t>
-        </is>
-      </c>
-      <c r="G92" t="n">
-        <v>3</v>
-      </c>
-      <c r="H92" t="n">
-        <v>3</v>
-      </c>
-      <c r="I92" t="n">
-        <v>34.76588821411133</v>
-      </c>
-      <c r="J92" t="n">
-        <v>-9.140726089477539</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>JUNIOR SOFTWARE ENGINEER</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>PROS: OTIMO VR E SALARIO ACIMA DA MEDIA | CONTRAS: ATUALMENTE, SE ENCONTRA SEM AUXILIO DO GYMPASS</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>20 de set. de 2021</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>PROS: OTIMO VR E SALARIO ACIMA DA MEDIA</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>ATUALMENTE, SE ENCONTRA SEM AUXILIO DO GYMPASS</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>[-0.05384489  0.02485668 -0.02463553 ... -0.02375281 -0.06522623
-  0.01474491]</t>
-        </is>
-      </c>
-      <c r="G93" t="n">
-        <v>3</v>
-      </c>
-      <c r="H93" t="n">
-        <v>3</v>
-      </c>
-      <c r="I93" t="n">
-        <v>41.25577545166016</v>
-      </c>
-      <c r="J93" t="n">
-        <v>-9.031328201293945</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>ASSISTENTE DE ATENDIMENTO</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>PROS: HOME OFFICE, AMBIENTE DE TRABALHO TRANQUILO, BENEFICIOS ATRATIVOS, OPORTUNIDADES INTERNAS. | CONTRAS: NAO OFERECE VALE COMBUSTIVEL PARA CARGOS INICIAIS.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>7 de fev. de 2022</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>PROS: HOME OFFICE, AMBIENTE DE TRABALHO TRANQUILO, BENEFICIOS ATRATIVOS, OPORTUNIDADES INTERNAS.</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>NAO OFERECE VALE COMBUSTIVEL PARA CARGOS INICIAIS.</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>[-0.03607951 -0.01402597 -0.01724234 ...  0.0171339  -0.05062751
- -0.02737386]</t>
-        </is>
-      </c>
-      <c r="G94" t="n">
-        <v>3</v>
-      </c>
-      <c r="H94" t="n">
-        <v>3</v>
-      </c>
-      <c r="I94" t="n">
-        <v>35.39258193969727</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.3931718468666077</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>ASSISTENTES ADMINISTRATIVO</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>PROS: OTIMO AMBIENTE, SALARIO COMPATIVEL COM O MERCADO | CONTRAS: PLR MENOS DE 1 SALARIO E NAO TEM GYM PASS</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>10 de jun. de 2022</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>PROS: OTIMO AMBIENTE, SALARIO COMPATIVEL COM O MERCADO</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>PLR MENOS DE 1 SALARIO E NAO TEM GYM PASS</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>[-0.05898998  0.01685949 -0.0618782  ... -0.0161921  -0.03901188
- -0.02926341]</t>
-        </is>
-      </c>
-      <c r="G95" t="n">
-        <v>3</v>
-      </c>
-      <c r="H95" t="n">
-        <v>3</v>
-      </c>
-      <c r="I95" t="n">
-        <v>7.456141471862793</v>
-      </c>
-      <c r="J95" t="n">
-        <v>-13.09016799926758</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>ANALISTA DE AUTOMACAO</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>PROS: EMPRESA RECEPTORA, MUITO ACOLHEDORA E TUDO BEM ORGANIZADO | CONTRAS: NAO POSSUI HORARIO FLEXIVEL OU HOME OFFICE PRO MEU TIME</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>17 de ago. de 2022</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>PROS: EMPRESA RECEPTORA, MUITO ACOLHEDORA E TUDO BEM ORGANIZADO</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>NAO POSSUI HORARIO FLEXIVEL OU HOME OFFICE PRO MEU TIME</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>[-0.02483857 -0.02323402 -0.02721906 ... -0.02525039 -0.06794938
- -0.00888783]</t>
-        </is>
-      </c>
-      <c r="G96" t="n">
-        <v>3</v>
-      </c>
-      <c r="H96" t="n">
-        <v>3</v>
-      </c>
-      <c r="I96" t="n">
-        <v>35.31789016723633</v>
-      </c>
-      <c r="J96" t="n">
-        <v>-5.331508636474609</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>ANALISTA SENIOR</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>PROS: LIDERANCA ESTIMULADORA. AMBIENTE CRIATIVO E QUE PERMITE SUGESTAO. | CONTRAS: NENHUM ATE AGORA. ATENDEU AS EXPECTATIVAS PASSADAS NA CONTRATACAO.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>22 de jun. de 2022</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>PROS: LIDERANCA ESTIMULADORA. AMBIENTE CRIATIVO E QUE PERMITE SUGESTAO.</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>NENHUM ATE AGORA. ATENDEU AS EXPECTATIVAS PASSADAS NA CONTRATACAO.</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>[-0.00379354  0.01408414 -0.06447899 ... -0.0030553  -0.05508409
- -0.0055573 ]</t>
-        </is>
-      </c>
-      <c r="G97" t="n">
-        <v>3</v>
-      </c>
-      <c r="H97" t="n">
-        <v>3</v>
-      </c>
-      <c r="I97" t="n">
-        <v>45.00390625</v>
-      </c>
-      <c r="J97" t="n">
-        <v>-2.996697187423706</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>ANALISTA SENIOR</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>PROS: O INTER TEM UM EXCELENTE CLIMA PARA SE TRABALHAR | CONTRAS: SEM HOME OFFICE PARA TODAS AS AREAS</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>24 de ago. de 2022</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>PROS: O INTER TEM UM EXCELENTE CLIMA PARA SE TRABALHAR</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>SEM HOME OFFICE PARA TODAS AS AREAS</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>[-0.00823566 -0.00909094 -0.02556316 ... -0.01487616 -0.04817134
-  0.0466971 ]</t>
-        </is>
-      </c>
-      <c r="G98" t="n">
-        <v>3</v>
-      </c>
-      <c r="H98" t="n">
-        <v>3</v>
-      </c>
-      <c r="I98" t="n">
-        <v>34.52417755126953</v>
-      </c>
-      <c r="J98" t="n">
-        <v>-12.11878776550293</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>ANALISTA DE NEGOCIOS SENIOR</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>PROS: OTIMOS BENEFICIOS E EXCELENTE AMBIENTE DE TRABALHO. | CONTRAS: NAO EXISTE CONTROLE DE HORAS TRABALHADAS</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>2 de fev. de 2021</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>PROS: OTIMOS BENEFICIOS E EXCELENTE AMBIENTE DE TRABALHO.</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>NAO EXISTE CONTROLE DE HORAS TRABALHADAS</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>[ 0.00591248 -0.00353169 -0.04562674 ...  0.00120471 -0.01324046
-  0.02750485]</t>
-        </is>
-      </c>
-      <c r="G99" t="n">
-        <v>3</v>
-      </c>
-      <c r="H99" t="n">
-        <v>3</v>
-      </c>
-      <c r="I99" t="n">
-        <v>43.02033233642578</v>
-      </c>
-      <c r="J99" t="n">
-        <v>-2.321556806564331</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>PROS: BONS BENEFICIOS, AMBIENTE DE TRABALHO E COLEGAS | CONTRAS: NADA, E UM OTIMO LUGAR PARA TRABALHAR</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>25 de set. de 2020</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>PROS: BONS BENEFICIOS, AMBIENTE DE TRABALHO E COLEGAS</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>NADA, E UM OTIMO LUGAR PARA TRABALHAR</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>[ 0.00114134  0.01491335 -0.05011424 ... -0.02351187 -0.03467099
- -0.03087748]</t>
-        </is>
-      </c>
-      <c r="G100" t="n">
-        <v>3</v>
-      </c>
-      <c r="H100" t="n">
-        <v>3</v>
-      </c>
-      <c r="I100" t="n">
-        <v>57.9892578125</v>
-      </c>
-      <c r="J100" t="n">
-        <v>-4.072849750518799</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>ANALISTA DE MIDIAS SOCIAIS SENIOR</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>PROS: POSSIBILIDADE ENORME DE CRESCIMENTO, E AMBIENTE E EQUIPE DIFERENCIADOS. | CONTRAS: NAO DISTRIBUI LUCRO PARA FUNCIONARIOS</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>31 de mai. de 2021</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>PROS: POSSIBILIDADE ENORME DE CRESCIMENTO, E AMBIENTE E EQUIPE DIFERENCIADOS.</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>NAO DISTRIBUI LUCRO PARA FUNCIONARIOS</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>[-0.07012124 -0.03269777 -0.02807013 ... -0.00864159 -0.03312903
- -0.02043602]</t>
-        </is>
-      </c>
-      <c r="G101" t="n">
-        <v>3</v>
-      </c>
-      <c r="H101" t="n">
-        <v>3</v>
-      </c>
-      <c r="I101" t="n">
-        <v>33.89930725097656</v>
-      </c>
-      <c r="J101" t="n">
-        <v>3.759910106658936</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>SUPERINTENDENTE</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>PROS: AMBIENTE DE TRABALHO COLABORATIVO E SAUDAVEL | CONTRAS: CULTURA DE TRABALHO SEM FOCO NO RESULTADO</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>28 de jan. de 2022</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>PROS: AMBIENTE DE TRABALHO COLABORATIVO E SAUDAVEL</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>CULTURA DE TRABALHO SEM FOCO NO RESULTADO</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>[-0.0292853  -0.03630837 -0.07525086 ... -0.00843593 -0.03711486
-  0.02330985]</t>
-        </is>
-      </c>
-      <c r="G102" t="n">
-        <v>3</v>
-      </c>
-      <c r="H102" t="n">
-        <v>3</v>
-      </c>
-      <c r="I102" t="n">
-        <v>34.67340087890625</v>
-      </c>
-      <c r="J102" t="n">
-        <v>15.87063121795654</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>TECH ANALYST</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>PROS: AMBIENTE BOM, HOME OFFICE , OTIMOS BENEFICIOS ! | CONTRAS: NENHUM ATE O MOMENTO !</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>13 de jun. de 2022</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>PROS: AMBIENTE BOM, HOME OFFICE , OTIMOS BENEFICIOS !</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>NENHUM ATE O MOMENTO !</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>[ 0.03381385  0.00215027 -0.04082858 ... -0.01750872 -0.03312293
- -0.03336524]</t>
-        </is>
-      </c>
-      <c r="G103" t="n">
-        <v>3</v>
-      </c>
-      <c r="H103" t="n">
-        <v>3</v>
-      </c>
-      <c r="I103" t="n">
-        <v>45.7276496887207</v>
-      </c>
-      <c r="J103" t="n">
-        <v>-1.515536785125732</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>TECH LEAD</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>PROS: AMBIENTE, PROJETOS, LIDERANCA, FLEXIBILIDADE, SALARIO | CONTRAS: FALTA DE FILIAL EM OUTRAS CAPITAIS</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>17 de mai. de 2021</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>PROS: AMBIENTE, PROJETOS, LIDERANCA, FLEXIBILIDADE, SALARIO</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>FALTA DE FILIAL EM OUTRAS CAPITAIS</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>[-0.01996736  0.02203552 -0.0114715  ...  0.0148117  -0.04993412
-  0.02438625]</t>
-        </is>
-      </c>
-      <c r="G104" t="n">
-        <v>3</v>
-      </c>
-      <c r="H104" t="n">
-        <v>3</v>
-      </c>
-      <c r="I104" t="n">
-        <v>-0.05767836049199104</v>
-      </c>
-      <c r="J104" t="n">
-        <v>7.60247278213501</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>ASSISTENTE</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>PROS: INOVACAO E TRANSFORMACAO DE PROCESSOS, APRENDIZAGEM CONTINUA. | CONTRAS: NAO APRESENTE CICLO DE AVALIACAO DE PERFORMANCE CONSOLIDADO.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>25 de jun. de 2021</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>PROS: INOVACAO E TRANSFORMACAO DE PROCESSOS, APRENDIZAGEM CONTINUA.</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>NAO APRESENTE CICLO DE AVALIACAO DE PERFORMANCE CONSOLIDADO.</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>[-0.05915404 -0.02611702 -0.0591796  ... -0.00557577 -0.02117862
-  0.03587043]</t>
-        </is>
-      </c>
-      <c r="G105" t="n">
-        <v>3</v>
-      </c>
-      <c r="H105" t="n">
-        <v>3</v>
-      </c>
-      <c r="I105" t="n">
-        <v>37.78512191772461</v>
-      </c>
-      <c r="J105" t="n">
-        <v>-1.181769371032715</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>ANALISTA DE SISTEMAS</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>PROS: TECNOLOGIA DE PONTA, BEM ATUAIS. | CONTRAS: NENHUM NO MOMENTO ATUAL DO TRABALHO</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>12 de jan. de 2022</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>PROS: TECNOLOGIA DE PONTA, BEM ATUAIS.</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>NENHUM NO MOMENTO ATUAL DO TRABALHO</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>[-0.00492196  0.02635122 -0.05396933 ...  0.01127847 -0.04180238
-  0.00344402]</t>
-        </is>
-      </c>
-      <c r="G106" t="n">
-        <v>3</v>
-      </c>
-      <c r="H106" t="n">
-        <v>3</v>
-      </c>
-      <c r="I106" t="n">
-        <v>44.8446159362793</v>
-      </c>
-      <c r="J106" t="n">
-        <v>-1.670099139213562</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>SOFTWARE DEVELOPER</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>PROS: AMBIENTE BOM E SALARIO OTIMO. | CONTRAS: NAO TEM BANCO DE HORAS.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>9 de fev. de 2022</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>PROS: AMBIENTE BOM E SALARIO OTIMO.</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>NAO TEM BANCO DE HORAS.</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>[ 0.038084   -0.01389424 -0.05020217 ...  0.00412123 -0.02052029
- -0.03298578]</t>
-        </is>
-      </c>
-      <c r="G107" t="n">
-        <v>3</v>
-      </c>
-      <c r="H107" t="n">
-        <v>3</v>
-      </c>
-      <c r="I107" t="n">
-        <v>42.87631607055664</v>
-      </c>
-      <c r="J107" t="n">
-        <v>-2.400332689285278</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>ESTAGIARIO DESENVOLVEDOR DE SOFTWARE</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>PROS: PREOCUPAM-SE MUITO COM OS COLABORADORES | CONTRAS: NAO HA BENEFICIOS PARA ESTAGIARIOS E APRENDIZES</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>13 de abr. de 2022</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>PROS: PREOCUPAM-SE MUITO COM OS COLABORADORES</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>NAO HA BENEFICIOS PARA ESTAGIARIOS E APRENDIZES</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>[-0.02693304 -0.03378662 -0.03740767 ... -0.00908946 -0.05324854
- -0.00855971]</t>
-        </is>
-      </c>
-      <c r="G108" t="n">
-        <v>3</v>
-      </c>
-      <c r="H108" t="n">
-        <v>3</v>
-      </c>
-      <c r="I108" t="n">
-        <v>35.17189407348633</v>
-      </c>
-      <c r="J108" t="n">
-        <v>4.277140617370605</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>DEV III</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>PROS: AMBIENTE E QUALIDADE DE VIDA | CONTRAS: AREAS DISTINTAS NAO SE CONVERSAM DIREITO</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>8 de jul. de 2022</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>PROS: AMBIENTE E QUALIDADE DE VIDA</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>AREAS DISTINTAS NAO SE CONVERSAM DIREITO</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>[ 0.03099266  0.02435802 -0.01764159 ...  0.00858016  0.06360762
-  0.0009505 ]</t>
-        </is>
-      </c>
-      <c r="G109" t="n">
-        <v>3</v>
-      </c>
-      <c r="H109" t="n">
-        <v>3</v>
-      </c>
-      <c r="I109" t="n">
-        <v>47.08537673950195</v>
-      </c>
-      <c r="J109" t="n">
-        <v>-7.730198383331299</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>ASSISTENTE</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>PROS: OTIMA EMPRESA PARA SE TRABALHAR | CONTRAS: NAO HA. OTIMA EMPRESA PARA SE TRABALHAR</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>1 de ago. de 2022</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>PROS: OTIMA EMPRESA PARA SE TRABALHAR</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>NAO HA. OTIMA EMPRESA PARA SE TRABALHAR</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>[-0.01080524  0.01381171 -0.05010581 ...  0.0197253  -0.06085664
- -0.01028265]</t>
-        </is>
-      </c>
-      <c r="G110" t="n">
-        <v>3</v>
-      </c>
-      <c r="H110" t="n">
-        <v>3</v>
-      </c>
-      <c r="I110" t="n">
-        <v>58.74826812744141</v>
-      </c>
-      <c r="J110" t="n">
-        <v>-3.910523414611816</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>ESTAGIARIO</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>PROS: MUITO BOM, SALARIO ACIMA DO MERCADO | CONTRAS: ESTAGIARIO NAO POSSUI BENEFICIOS EXTRAS</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>1 de jun. de 2022</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>PROS: MUITO BOM, SALARIO ACIMA DO MERCADO</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>ESTAGIARIO NAO POSSUI BENEFICIOS EXTRAS</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>[-0.01139438 -0.03694112 -0.03774843 ... -0.02037952 -0.07394349
- -0.00868003]</t>
-        </is>
-      </c>
-      <c r="G111" t="n">
-        <v>3</v>
-      </c>
-      <c r="H111" t="n">
-        <v>3</v>
-      </c>
-      <c r="I111" t="n">
-        <v>35.32834243774414</v>
-      </c>
-      <c r="J111" t="n">
-        <v>4.360711097717285</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>ANALISTA DE SUPORTE JUNIOR</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>PROS: BONS BENEFICIOS, FLEXIBILIDADE DE HORARIO. | CONTRAS: NAO ADEPTO A 100% HOME OFFICE.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>2 de jun. de 2022</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>PROS: BONS BENEFICIOS, FLEXIBILIDADE DE HORARIO.</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>NAO ADEPTO A 100% HOME OFFICE.</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>[-0.0048993  -0.03060398 -0.0431377  ... -0.01348948 -0.04893927
- -0.01833846]</t>
-        </is>
-      </c>
-      <c r="G112" t="n">
-        <v>3</v>
-      </c>
-      <c r="H112" t="n">
-        <v>3</v>
-      </c>
-      <c r="I112" t="n">
-        <v>33.70932769775391</v>
-      </c>
-      <c r="J112" t="n">
-        <v>-7.358582496643066</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>SENIOR SOFTWARE ENGINEER</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>PROS: SALARIO, AMBIENTE ACOLHEDOR, PLANO DE CARREIRA | CONTRAS: NAO CONTA COM GYMPASS .</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>12 de jul. de 2022</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>PROS: SALARIO, AMBIENTE ACOLHEDOR, PLANO DE CARREIRA</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>NAO CONTA COM GYMPASS .</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>[-0.04004643 -0.00289064 -0.0262067  ... -0.04308841 -0.0469083
- -0.01334737]</t>
-        </is>
-      </c>
-      <c r="G113" t="n">
-        <v>3</v>
-      </c>
-      <c r="H113" t="n">
-        <v>3</v>
-      </c>
-      <c r="I113" t="n">
-        <v>41.5694694519043</v>
-      </c>
-      <c r="J113" t="n">
-        <v>-7.881105899810791</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>IOS DEVELOPER</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>PROS: EQUIPE RECEPTIVA
-ENSINO CONTINUO 
-AMBIENTE DESCONTRAIDO | CONTRAS: NAO ESTOU A TEMPO SUFICIENTE</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>10 de jun. de 2021</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>PROS: EQUIPE RECEPTIVA
-ENSINO CONTINUO 
-AMBIENTE DESCONTRAIDO</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>NAO ESTOU A TEMPO SUFICIENTE</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>[ 0.00503804  0.01243152 -0.05921609 ... -0.03946228 -0.03051651
- -0.03759696]</t>
-        </is>
-      </c>
-      <c r="G114" t="n">
-        <v>3</v>
-      </c>
-      <c r="H114" t="n">
-        <v>3</v>
-      </c>
-      <c r="I114" t="n">
-        <v>43.13433456420898</v>
-      </c>
-      <c r="J114" t="n">
-        <v>2.443812131881714</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>COORDENADOR DE TI</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>PROS: BENEFICIOS, PL, TECNOLOGIA, EQUIPE, INFRA | CONTRAS: PRESSAO, AMBIENTE, COBRANCA, NADA, NADA</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>15 de set. de 2020</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>PROS: BENEFICIOS, PL, TECNOLOGIA, EQUIPE, INFRA</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>PRESSAO, AMBIENTE, COBRANCA, NADA, NADA</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>[ 0.0088713   0.02199931 -0.0453888  ... -0.01209061 -0.03599345
- -0.02098589]</t>
-        </is>
-      </c>
-      <c r="G115" t="n">
-        <v>3</v>
-      </c>
-      <c r="H115" t="n">
-        <v>3</v>
-      </c>
-      <c r="I115" t="n">
-        <v>45.54994583129883</v>
-      </c>
-      <c r="J115" t="n">
-        <v>-12.08022594451904</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>ANALISTA DE SUPORTE</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>PROS: NADA DE PROS PARA UM BANCO QUE SUGA ATE SUA ULTIMA GOTA DE SANGUE! | CONTRAS: NAO RECOMENDO NINGUEM TRABALHAR NESSE BANCO! TRABALHO ESCRAVO!</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>29 de dez. de 2020</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>PROS: NADA DE PROS PARA UM BANCO QUE SUGA ATE SUA ULTIMA GOTA DE SANGUE!</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>NAO RECOMENDO NINGUEM TRABALHAR NESSE BANCO! TRABALHO ESCRAVO!</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>[-0.01678928 -0.0025421  -0.06262446 ... -0.00173279 -0.00714634
-  0.01521352]</t>
-        </is>
-      </c>
-      <c r="G116" t="n">
-        <v>3</v>
-      </c>
-      <c r="H116" t="n">
-        <v>3</v>
-      </c>
-      <c r="I116" t="n">
-        <v>-27.05743598937988</v>
-      </c>
-      <c r="J116" t="n">
-        <v>16.1361141204834</v>
+        <v>5.873960018157959</v>
+      </c>
+      <c r="K88" t="n">
+        <v>-18.55713653564453</v>
       </c>
     </row>
   </sheetData>
